--- a/Fremantle_stats.xlsx
+++ b/Fremantle_stats.xlsx
@@ -12976,7 +12976,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Goal Assists</t>
+          <t>Goal Assists1</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -17393,7 +17393,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Clearances</t>
+          <t>Clearances1</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -18024,7 +18024,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Clangers</t>
+          <t>Clangers1</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -18655,7 +18655,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Rebound 50s</t>
+          <t>Rebound 50s1</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -30013,7 +30013,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Clangers</t>
+          <t>Clangers2</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -31906,7 +31906,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Clearances</t>
+          <t>Clearances2</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -32537,7 +32537,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Rebound 50s</t>
+          <t>Rebound 50s2</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -34430,7 +34430,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Goals Assists</t>
+          <t>Goals Assists2</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -35692,7 +35692,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Kicks (every)</t>
+          <t>Kicks (O)</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -36323,7 +36323,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Handballs (row)</t>
+          <t>Handballs (O)</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -36954,7 +36954,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Disposals (from)</t>
+          <t>Disposals (O)</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -37585,7 +37585,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Kick to HB Ratio (kicks)</t>
+          <t>Kick to HB Ratio (O)</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -38216,7 +38216,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Marks (below)</t>
+          <t>Marks (O)</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -38847,7 +38847,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Tackles(is against)</t>
+          <t>Tackles(O)</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -39478,7 +39478,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Hitouts</t>
+          <t>Hitouts(O)</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -40109,7 +40109,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Frees For</t>
+          <t>Frees For(O)</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -40740,7 +40740,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Frees Against</t>
+          <t>Frees Against(O)</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -41371,7 +41371,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Goals Kicked</t>
+          <t>Goals Kicked(O)</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -42002,7 +42002,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Goal Assists</t>
+          <t>Goal Assists1(O)</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -42633,7 +42633,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Behinds Kicked</t>
+          <t>Behinds Kicked(O)</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -43264,7 +43264,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Rushed Behinds</t>
+          <t>Rushed Behinds(O)</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -43895,7 +43895,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Scoring Shots</t>
+          <t>Scoring Shots(O)</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -44526,7 +44526,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Conversion %</t>
+          <t>Conversion %(O)</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -45157,7 +45157,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Disposals Per Goal</t>
+          <t>Disposals Per Goal(O)</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -45788,7 +45788,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Disposals Per Scoring Shot</t>
+          <t>Disposals Per Scoring Shot(O)</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -46419,7 +46419,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Clearances</t>
+          <t>Clearances1(O)</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -47050,7 +47050,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Clangers</t>
+          <t>Clangers1(O)</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -47681,7 +47681,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Rebound 50s</t>
+          <t>Rebound 50s1(O)</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -48312,7 +48312,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Inside 50s</t>
+          <t>Inside 50s(O)</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -48943,7 +48943,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>In50s Per Scoring Shot</t>
+          <t>In50s Per Scoring Shot(O)</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -49574,7 +49574,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>In50s Per Goal</t>
+          <t>In50s Per Goal(O)</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -50205,7 +50205,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>% In50s Score</t>
+          <t>% In50s Score(O)</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -50836,7 +50836,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>% In50s Goal</t>
+          <t>% In50s Goal(O)</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -51467,7 +51467,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Height</t>
+          <t>Height(O)</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -52098,7 +52098,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Weight</t>
+          <t>Weight(O)</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -52729,7 +52729,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Age(O)</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -53360,7 +53360,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Av Games</t>
+          <t>Av Games(O)</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -53991,7 +53991,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>&lt;50 Games</t>
+          <t>&lt;50 Games(O)</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -54622,7 +54622,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>50-99 Games</t>
+          <t>50-99 Games(O)</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -55253,7 +55253,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>100-149 Games</t>
+          <t>100-149 Games(O)</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -55884,7 +55884,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>&gt;150 Games</t>
+          <t>&gt;150 Games(O)</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -56515,7 +56515,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Contested Poss</t>
+          <t>Contested Poss(O)</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -57146,7 +57146,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Uncontested Poss</t>
+          <t>Uncontested Poss(O)</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -57777,7 +57777,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Effective Disposals</t>
+          <t>Effective Disposals(O)</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -58408,7 +58408,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Disposal Efficiency</t>
+          <t>Disposal Efficiency(O)</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -59039,7 +59039,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Clangers</t>
+          <t>Clangers2(O)</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -59670,7 +59670,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Contested Marks</t>
+          <t>Contested Marks(O)</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -60301,7 +60301,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Marks Inside 50</t>
+          <t>Marks Inside 50(O)</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -60932,7 +60932,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Clearances</t>
+          <t>Clearances2(O)</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -61563,7 +61563,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Rebound 50s</t>
+          <t>Rebound 50s2(O)</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -62194,7 +62194,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>1%ers</t>
+          <t>1%ers(O)</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -62825,7 +62825,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Bounces</t>
+          <t>Bounces(O)</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -63456,7 +63456,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Goals Assists</t>
+          <t>Goals Assists2(O)</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -64087,7 +64087,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Goal Assist %</t>
+          <t>Goal Assist %(O)</t>
         </is>
       </c>
       <c r="B102" t="n">

--- a/Fremantle_stats.xlsx
+++ b/Fremantle_stats.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HA102"/>
+  <dimension ref="A1:HC102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -983,6 +983,12 @@
       <c r="HA1" t="n">
         <v>9930</v>
       </c>
+      <c r="HB1" t="n">
+        <v>10128</v>
+      </c>
+      <c r="HC1" t="n">
+        <v>10143</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1614,6 +1620,12 @@
       <c r="HA2" t="n">
         <v>2020</v>
       </c>
+      <c r="HB2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HC2" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2245,6 +2257,12 @@
       <c r="HA3" t="n">
         <v>1</v>
       </c>
+      <c r="HB3" t="n">
+        <v>2</v>
+      </c>
+      <c r="HC3" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2876,6 +2894,12 @@
       <c r="HA4" t="n">
         <v>1</v>
       </c>
+      <c r="HB4" t="n">
+        <v>1</v>
+      </c>
+      <c r="HC4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3507,6 +3531,12 @@
       <c r="HA5" t="n">
         <v>0</v>
       </c>
+      <c r="HB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4138,6 +4168,12 @@
       <c r="HA6" t="n">
         <v>57</v>
       </c>
+      <c r="HB6" t="n">
+        <v>69</v>
+      </c>
+      <c r="HC6" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4769,6 +4805,12 @@
       <c r="HA7" t="n">
         <v>63</v>
       </c>
+      <c r="HB7" t="n">
+        <v>81</v>
+      </c>
+      <c r="HC7" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5400,6 +5442,12 @@
       <c r="HA8" t="n">
         <v>-6</v>
       </c>
+      <c r="HB8" t="n">
+        <v>-12</v>
+      </c>
+      <c r="HC8" t="n">
+        <v>-29</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6031,6 +6079,12 @@
       <c r="HA9" t="n">
         <v>0</v>
       </c>
+      <c r="HB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6662,6 +6716,12 @@
       <c r="HA10" t="n">
         <v>5</v>
       </c>
+      <c r="HB10" t="n">
+        <v>2</v>
+      </c>
+      <c r="HC10" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7293,6 +7353,12 @@
       <c r="HA11" t="n">
         <v>166</v>
       </c>
+      <c r="HB11" t="n">
+        <v>170</v>
+      </c>
+      <c r="HC11" t="n">
+        <v>163</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7924,6 +7990,12 @@
       <c r="HA12" t="n">
         <v>120</v>
       </c>
+      <c r="HB12" t="n">
+        <v>125</v>
+      </c>
+      <c r="HC12" t="n">
+        <v>97</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8555,6 +8627,12 @@
       <c r="HA13" t="n">
         <v>286</v>
       </c>
+      <c r="HB13" t="n">
+        <v>295</v>
+      </c>
+      <c r="HC13" t="n">
+        <v>260</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9186,6 +9264,12 @@
       <c r="HA14" t="n">
         <v>1.38</v>
       </c>
+      <c r="HB14" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="HC14" t="n">
+        <v>1.68</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -9817,6 +9901,12 @@
       <c r="HA15" t="n">
         <v>79</v>
       </c>
+      <c r="HB15" t="n">
+        <v>60</v>
+      </c>
+      <c r="HC15" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10448,6 +10538,12 @@
       <c r="HA16" t="n">
         <v>33</v>
       </c>
+      <c r="HB16" t="n">
+        <v>41</v>
+      </c>
+      <c r="HC16" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11079,6 +11175,12 @@
       <c r="HA17" t="n">
         <v>29</v>
       </c>
+      <c r="HB17" t="n">
+        <v>21</v>
+      </c>
+      <c r="HC17" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -11710,6 +11812,12 @@
       <c r="HA18" t="n">
         <v>11</v>
       </c>
+      <c r="HB18" t="n">
+        <v>19</v>
+      </c>
+      <c r="HC18" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -12341,6 +12449,12 @@
       <c r="HA19" t="n">
         <v>17</v>
       </c>
+      <c r="HB19" t="n">
+        <v>12</v>
+      </c>
+      <c r="HC19" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -12972,6 +13086,12 @@
       <c r="HA20" t="n">
         <v>8</v>
       </c>
+      <c r="HB20" t="n">
+        <v>10</v>
+      </c>
+      <c r="HC20" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -13603,6 +13723,12 @@
       <c r="HA21" t="n">
         <v>7</v>
       </c>
+      <c r="HB21" t="n">
+        <v>5</v>
+      </c>
+      <c r="HC21" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -14234,6 +14360,12 @@
       <c r="HA22" t="n">
         <v>8</v>
       </c>
+      <c r="HB22" t="n">
+        <v>6</v>
+      </c>
+      <c r="HC22" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -14865,6 +14997,12 @@
       <c r="HA23" t="n">
         <v>1</v>
       </c>
+      <c r="HB23" t="n">
+        <v>3</v>
+      </c>
+      <c r="HC23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -15496,6 +15634,12 @@
       <c r="HA24" t="n">
         <v>17</v>
       </c>
+      <c r="HB24" t="n">
+        <v>19</v>
+      </c>
+      <c r="HC24" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -16127,6 +16271,12 @@
       <c r="HA25" t="n">
         <v>47.1</v>
       </c>
+      <c r="HB25" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="HC25" t="n">
+        <v>54.5</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -16758,6 +16908,12 @@
       <c r="HA26" t="n">
         <v>35.75</v>
       </c>
+      <c r="HB26" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="HC26" t="n">
+        <v>43.33</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -17389,6 +17545,12 @@
       <c r="HA27" t="n">
         <v>16.82</v>
       </c>
+      <c r="HB27" t="n">
+        <v>15.53</v>
+      </c>
+      <c r="HC27" t="n">
+        <v>23.64</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -18020,6 +18182,12 @@
       <c r="HA28" t="n">
         <v>21</v>
       </c>
+      <c r="HB28" t="n">
+        <v>33</v>
+      </c>
+      <c r="HC28" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -18651,6 +18819,12 @@
       <c r="HA29" t="n">
         <v>47</v>
       </c>
+      <c r="HB29" t="n">
+        <v>38</v>
+      </c>
+      <c r="HC29" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -19282,6 +19456,12 @@
       <c r="HA30" t="n">
         <v>32</v>
       </c>
+      <c r="HB30" t="n">
+        <v>30</v>
+      </c>
+      <c r="HC30" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -19913,6 +20093,12 @@
       <c r="HA31" t="n">
         <v>36</v>
       </c>
+      <c r="HB31" t="n">
+        <v>44</v>
+      </c>
+      <c r="HC31" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -20544,6 +20730,12 @@
       <c r="HA32" t="n">
         <v>2.12</v>
       </c>
+      <c r="HB32" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="HC32" t="n">
+        <v>3.09</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -21175,6 +21367,12 @@
       <c r="HA33" t="n">
         <v>4.5</v>
       </c>
+      <c r="HB33" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="HC33" t="n">
+        <v>5.67</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -21806,6 +22004,12 @@
       <c r="HA34" t="n">
         <v>44.4</v>
       </c>
+      <c r="HB34" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="HC34" t="n">
+        <v>29.4</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -22437,6 +22641,12 @@
       <c r="HA35" t="n">
         <v>22.2</v>
       </c>
+      <c r="HB35" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="HC35" t="n">
+        <v>17.6</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -23068,6 +23278,12 @@
       <c r="HA36" t="n">
         <v>188</v>
       </c>
+      <c r="HB36" t="n">
+        <v>188</v>
+      </c>
+      <c r="HC36" t="n">
+        <v>187.3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -23699,6 +23915,12 @@
       <c r="HA37" t="n">
         <v>88.8</v>
       </c>
+      <c r="HB37" t="n">
+        <v>89</v>
+      </c>
+      <c r="HC37" t="n">
+        <v>87.3</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -24330,6 +24552,12 @@
       <c r="HA38" t="n">
         <v>24</v>
       </c>
+      <c r="HB38" t="n">
+        <v>24.91</v>
+      </c>
+      <c r="HC38" t="n">
+        <v>25.24</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -24961,6 +25189,12 @@
       <c r="HA39" t="n">
         <v>58.7</v>
       </c>
+      <c r="HB39" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="HC39" t="n">
+        <v>82.8</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -25592,6 +25826,12 @@
       <c r="HA40" t="n">
         <v>11</v>
       </c>
+      <c r="HB40" t="n">
+        <v>10</v>
+      </c>
+      <c r="HC40" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -26223,6 +26463,12 @@
       <c r="HA41" t="n">
         <v>8</v>
       </c>
+      <c r="HB41" t="n">
+        <v>7</v>
+      </c>
+      <c r="HC41" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -26854,6 +27100,12 @@
       <c r="HA42" t="n">
         <v>1</v>
       </c>
+      <c r="HB42" t="n">
+        <v>2</v>
+      </c>
+      <c r="HC42" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -27485,6 +27737,12 @@
       <c r="HA43" t="n">
         <v>2</v>
       </c>
+      <c r="HB43" t="n">
+        <v>3</v>
+      </c>
+      <c r="HC43" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -28116,6 +28374,12 @@
       <c r="HA44" t="n">
         <v>102</v>
       </c>
+      <c r="HB44" t="n">
+        <v>124</v>
+      </c>
+      <c r="HC44" t="n">
+        <v>107</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -28747,6 +29011,12 @@
       <c r="HA45" t="n">
         <v>190</v>
       </c>
+      <c r="HB45" t="n">
+        <v>163</v>
+      </c>
+      <c r="HC45" t="n">
+        <v>144</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -29378,6 +29648,12 @@
       <c r="HA46" t="n">
         <v>211</v>
       </c>
+      <c r="HB46" t="n">
+        <v>215</v>
+      </c>
+      <c r="HC46" t="n">
+        <v>178</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -30009,6 +30285,12 @@
       <c r="HA47" t="n">
         <v>73.8</v>
       </c>
+      <c r="HB47" t="n">
+        <v>72.90000000000001</v>
+      </c>
+      <c r="HC47" t="n">
+        <v>68.5</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -30640,6 +30922,12 @@
       <c r="HA48" t="n">
         <v>47</v>
       </c>
+      <c r="HB48" t="n">
+        <v>38</v>
+      </c>
+      <c r="HC48" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -31271,6 +31559,12 @@
       <c r="HA49" t="n">
         <v>11</v>
       </c>
+      <c r="HB49" t="n">
+        <v>17</v>
+      </c>
+      <c r="HC49" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -31902,6 +32196,12 @@
       <c r="HA50" t="n">
         <v>9</v>
       </c>
+      <c r="HB50" t="n">
+        <v>8</v>
+      </c>
+      <c r="HC50" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -32533,6 +32833,12 @@
       <c r="HA51" t="n">
         <v>21</v>
       </c>
+      <c r="HB51" t="n">
+        <v>33</v>
+      </c>
+      <c r="HC51" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -33164,6 +33470,12 @@
       <c r="HA52" t="n">
         <v>32</v>
       </c>
+      <c r="HB52" t="n">
+        <v>30</v>
+      </c>
+      <c r="HC52" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -33795,6 +34107,12 @@
       <c r="HA53" t="n">
         <v>46</v>
       </c>
+      <c r="HB53" t="n">
+        <v>31</v>
+      </c>
+      <c r="HC53" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -34426,6 +34744,12 @@
       <c r="HA54" t="n">
         <v>2</v>
       </c>
+      <c r="HB54" t="n">
+        <v>5</v>
+      </c>
+      <c r="HC54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -35057,6 +35381,12 @@
       <c r="HA55" t="n">
         <v>7</v>
       </c>
+      <c r="HB55" t="n">
+        <v>5</v>
+      </c>
+      <c r="HC55" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -35688,6 +36018,12 @@
       <c r="HA56" t="n">
         <v>87.5</v>
       </c>
+      <c r="HB56" t="n">
+        <v>50</v>
+      </c>
+      <c r="HC56" t="n">
+        <v>66.7</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -36319,6 +36655,12 @@
       <c r="HA57" t="n">
         <v>192</v>
       </c>
+      <c r="HB57" t="n">
+        <v>182</v>
+      </c>
+      <c r="HC57" t="n">
+        <v>179</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -36950,6 +37292,12 @@
       <c r="HA58" t="n">
         <v>147</v>
       </c>
+      <c r="HB58" t="n">
+        <v>127</v>
+      </c>
+      <c r="HC58" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -37581,6 +37929,12 @@
       <c r="HA59" t="n">
         <v>339</v>
       </c>
+      <c r="HB59" t="n">
+        <v>309</v>
+      </c>
+      <c r="HC59" t="n">
+        <v>274</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -38212,6 +38566,12 @@
       <c r="HA60" t="n">
         <v>1.31</v>
       </c>
+      <c r="HB60" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="HC60" t="n">
+        <v>1.88</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -38843,6 +39203,12 @@
       <c r="HA61" t="n">
         <v>98</v>
       </c>
+      <c r="HB61" t="n">
+        <v>72</v>
+      </c>
+      <c r="HC61" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -39474,6 +39840,12 @@
       <c r="HA62" t="n">
         <v>58</v>
       </c>
+      <c r="HB62" t="n">
+        <v>50</v>
+      </c>
+      <c r="HC62" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -40105,6 +40477,12 @@
       <c r="HA63" t="n">
         <v>30</v>
       </c>
+      <c r="HB63" t="n">
+        <v>37</v>
+      </c>
+      <c r="HC63" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -40736,6 +41114,12 @@
       <c r="HA64" t="n">
         <v>17</v>
       </c>
+      <c r="HB64" t="n">
+        <v>12</v>
+      </c>
+      <c r="HC64" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -41367,6 +41751,12 @@
       <c r="HA65" t="n">
         <v>11</v>
       </c>
+      <c r="HB65" t="n">
+        <v>19</v>
+      </c>
+      <c r="HC65" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -41998,6 +42388,12 @@
       <c r="HA66" t="n">
         <v>9</v>
       </c>
+      <c r="HB66" t="n">
+        <v>12</v>
+      </c>
+      <c r="HC66" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -42629,6 +43025,12 @@
       <c r="HA67" t="n">
         <v>6</v>
       </c>
+      <c r="HB67" t="n">
+        <v>8</v>
+      </c>
+      <c r="HC67" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -43260,6 +43662,12 @@
       <c r="HA68" t="n">
         <v>7</v>
       </c>
+      <c r="HB68" t="n">
+        <v>7</v>
+      </c>
+      <c r="HC68" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -43891,6 +44299,12 @@
       <c r="HA69" t="n">
         <v>2</v>
       </c>
+      <c r="HB69" t="n">
+        <v>2</v>
+      </c>
+      <c r="HC69" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -44522,6 +44936,12 @@
       <c r="HA70" t="n">
         <v>18</v>
       </c>
+      <c r="HB70" t="n">
+        <v>21</v>
+      </c>
+      <c r="HC70" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -45153,6 +45573,12 @@
       <c r="HA71" t="n">
         <v>50</v>
       </c>
+      <c r="HB71" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="HC71" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -45784,6 +46210,12 @@
       <c r="HA72" t="n">
         <v>37.67</v>
       </c>
+      <c r="HB72" t="n">
+        <v>25.75</v>
+      </c>
+      <c r="HC72" t="n">
+        <v>27.4</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -46415,6 +46847,12 @@
       <c r="HA73" t="n">
         <v>18.83</v>
       </c>
+      <c r="HB73" t="n">
+        <v>14.71</v>
+      </c>
+      <c r="HC73" t="n">
+        <v>13.7</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -47046,6 +47484,12 @@
       <c r="HA74" t="n">
         <v>28</v>
       </c>
+      <c r="HB74" t="n">
+        <v>30</v>
+      </c>
+      <c r="HC74" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -47677,6 +48121,12 @@
       <c r="HA75" t="n">
         <v>37</v>
       </c>
+      <c r="HB75" t="n">
+        <v>42</v>
+      </c>
+      <c r="HC75" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -48308,6 +48758,12 @@
       <c r="HA76" t="n">
         <v>26</v>
       </c>
+      <c r="HB76" t="n">
+        <v>32</v>
+      </c>
+      <c r="HC76" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -48939,6 +49395,12 @@
       <c r="HA77" t="n">
         <v>41</v>
       </c>
+      <c r="HB77" t="n">
+        <v>43</v>
+      </c>
+      <c r="HC77" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -49570,6 +50032,12 @@
       <c r="HA78" t="n">
         <v>2.28</v>
       </c>
+      <c r="HB78" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="HC78" t="n">
+        <v>2.75</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -50201,6 +50669,12 @@
       <c r="HA79" t="n">
         <v>4.56</v>
       </c>
+      <c r="HB79" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="HC79" t="n">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -50832,6 +51306,12 @@
       <c r="HA80" t="n">
         <v>39</v>
       </c>
+      <c r="HB80" t="n">
+        <v>44.2</v>
+      </c>
+      <c r="HC80" t="n">
+        <v>30.9</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -51463,6 +51943,12 @@
       <c r="HA81" t="n">
         <v>22</v>
       </c>
+      <c r="HB81" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="HC81" t="n">
+        <v>18.2</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -52094,6 +52580,12 @@
       <c r="HA82" t="n">
         <v>185.2</v>
       </c>
+      <c r="HB82" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="HC82" t="n">
+        <v>188.4</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -52725,6 +53217,12 @@
       <c r="HA83" t="n">
         <v>85.40000000000001</v>
       </c>
+      <c r="HB83" t="n">
+        <v>88.09999999999999</v>
+      </c>
+      <c r="HC83" t="n">
+        <v>84.59999999999999</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -53356,6 +53854,12 @@
       <c r="HA84" t="n">
         <v>24.91</v>
       </c>
+      <c r="HB84" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="HC84" t="n">
+        <v>26.58</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -53987,6 +54491,12 @@
       <c r="HA85" t="n">
         <v>81.8</v>
       </c>
+      <c r="HB85" t="n">
+        <v>102.7</v>
+      </c>
+      <c r="HC85" t="n">
+        <v>121.1</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -54618,6 +55128,12 @@
       <c r="HA86" t="n">
         <v>8</v>
       </c>
+      <c r="HB86" t="n">
+        <v>6</v>
+      </c>
+      <c r="HC86" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -55249,6 +55765,12 @@
       <c r="HA87" t="n">
         <v>7</v>
       </c>
+      <c r="HB87" t="n">
+        <v>5</v>
+      </c>
+      <c r="HC87" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -55880,6 +56402,12 @@
       <c r="HA88" t="n">
         <v>4</v>
       </c>
+      <c r="HB88" t="n">
+        <v>5</v>
+      </c>
+      <c r="HC88" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -56511,6 +57039,12 @@
       <c r="HA89" t="n">
         <v>3</v>
       </c>
+      <c r="HB89" t="n">
+        <v>6</v>
+      </c>
+      <c r="HC89" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -57142,6 +57676,12 @@
       <c r="HA90" t="n">
         <v>101</v>
       </c>
+      <c r="HB90" t="n">
+        <v>131</v>
+      </c>
+      <c r="HC90" t="n">
+        <v>130</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -57773,6 +58313,12 @@
       <c r="HA91" t="n">
         <v>234</v>
       </c>
+      <c r="HB91" t="n">
+        <v>178</v>
+      </c>
+      <c r="HC91" t="n">
+        <v>146</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -58404,6 +58950,12 @@
       <c r="HA92" t="n">
         <v>261</v>
       </c>
+      <c r="HB92" t="n">
+        <v>231</v>
+      </c>
+      <c r="HC92" t="n">
+        <v>183</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -59035,6 +59587,12 @@
       <c r="HA93" t="n">
         <v>77</v>
       </c>
+      <c r="HB93" t="n">
+        <v>74.8</v>
+      </c>
+      <c r="HC93" t="n">
+        <v>66.8</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -59666,6 +60224,12 @@
       <c r="HA94" t="n">
         <v>37</v>
       </c>
+      <c r="HB94" t="n">
+        <v>42</v>
+      </c>
+      <c r="HC94" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -60297,6 +60861,12 @@
       <c r="HA95" t="n">
         <v>5</v>
       </c>
+      <c r="HB95" t="n">
+        <v>11</v>
+      </c>
+      <c r="HC95" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -60928,6 +61498,12 @@
       <c r="HA96" t="n">
         <v>9</v>
       </c>
+      <c r="HB96" t="n">
+        <v>9</v>
+      </c>
+      <c r="HC96" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -61559,6 +62135,12 @@
       <c r="HA97" t="n">
         <v>28</v>
       </c>
+      <c r="HB97" t="n">
+        <v>30</v>
+      </c>
+      <c r="HC97" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -62190,6 +62772,12 @@
       <c r="HA98" t="n">
         <v>26</v>
       </c>
+      <c r="HB98" t="n">
+        <v>32</v>
+      </c>
+      <c r="HC98" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -62821,6 +63409,12 @@
       <c r="HA99" t="n">
         <v>51</v>
       </c>
+      <c r="HB99" t="n">
+        <v>54</v>
+      </c>
+      <c r="HC99" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -63452,6 +64046,12 @@
       <c r="HA100" t="n">
         <v>8</v>
       </c>
+      <c r="HB100" t="n">
+        <v>2</v>
+      </c>
+      <c r="HC100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -64083,6 +64683,12 @@
       <c r="HA101" t="n">
         <v>6</v>
       </c>
+      <c r="HB101" t="n">
+        <v>8</v>
+      </c>
+      <c r="HC101" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -64714,8 +65320,14 @@
       <c r="HA102" t="n">
         <v>66.7</v>
       </c>
+      <c r="HB102" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="HC102" t="n">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Fremantle_stats.xlsx
+++ b/Fremantle_stats.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HC102"/>
+  <dimension ref="A1:HD102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -989,6 +989,9 @@
       <c r="HC1" t="n">
         <v>10143</v>
       </c>
+      <c r="HD1" t="n">
+        <v>10149</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1626,6 +1629,9 @@
       <c r="HC2" t="n">
         <v>2020</v>
       </c>
+      <c r="HD2" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2263,6 +2269,9 @@
       <c r="HC3" t="n">
         <v>3</v>
       </c>
+      <c r="HD3" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2900,6 +2909,9 @@
       <c r="HC4" t="n">
         <v>0</v>
       </c>
+      <c r="HD4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3537,6 +3549,9 @@
       <c r="HC5" t="n">
         <v>1</v>
       </c>
+      <c r="HD5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4174,6 +4189,9 @@
       <c r="HC6" t="n">
         <v>41</v>
       </c>
+      <c r="HD6" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4811,6 +4829,9 @@
       <c r="HC7" t="n">
         <v>70</v>
       </c>
+      <c r="HD7" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5448,6 +5469,9 @@
       <c r="HC8" t="n">
         <v>-29</v>
       </c>
+      <c r="HD8" t="n">
+        <v>-13</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6085,6 +6109,9 @@
       <c r="HC9" t="n">
         <v>0</v>
       </c>
+      <c r="HD9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6722,6 +6749,9 @@
       <c r="HC10" t="n">
         <v>13</v>
       </c>
+      <c r="HD10" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7359,6 +7389,9 @@
       <c r="HC11" t="n">
         <v>163</v>
       </c>
+      <c r="HD11" t="n">
+        <v>163</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7996,6 +8029,9 @@
       <c r="HC12" t="n">
         <v>97</v>
       </c>
+      <c r="HD12" t="n">
+        <v>103</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8633,6 +8669,9 @@
       <c r="HC13" t="n">
         <v>260</v>
       </c>
+      <c r="HD13" t="n">
+        <v>266</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9270,6 +9309,9 @@
       <c r="HC14" t="n">
         <v>1.68</v>
       </c>
+      <c r="HD14" t="n">
+        <v>1.58</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -9907,6 +9949,9 @@
       <c r="HC15" t="n">
         <v>59</v>
       </c>
+      <c r="HD15" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10544,6 +10589,9 @@
       <c r="HC16" t="n">
         <v>49</v>
       </c>
+      <c r="HD16" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11181,6 +11229,9 @@
       <c r="HC17" t="n">
         <v>20</v>
       </c>
+      <c r="HD17" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -11818,6 +11869,9 @@
       <c r="HC18" t="n">
         <v>17</v>
       </c>
+      <c r="HD18" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -12455,6 +12509,9 @@
       <c r="HC19" t="n">
         <v>15</v>
       </c>
+      <c r="HD19" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -13092,6 +13149,9 @@
       <c r="HC20" t="n">
         <v>6</v>
       </c>
+      <c r="HD20" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -13729,6 +13789,9 @@
       <c r="HC21" t="n">
         <v>4</v>
       </c>
+      <c r="HD21" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -14366,6 +14429,9 @@
       <c r="HC22" t="n">
         <v>4</v>
       </c>
+      <c r="HD22" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -15003,6 +15069,9 @@
       <c r="HC23" t="n">
         <v>1</v>
       </c>
+      <c r="HD23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -15640,6 +15709,9 @@
       <c r="HC24" t="n">
         <v>11</v>
       </c>
+      <c r="HD24" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -16277,6 +16349,9 @@
       <c r="HC25" t="n">
         <v>54.5</v>
       </c>
+      <c r="HD25" t="n">
+        <v>72.7</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -16914,6 +16989,9 @@
       <c r="HC26" t="n">
         <v>43.33</v>
       </c>
+      <c r="HD26" t="n">
+        <v>33.25</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -17551,6 +17629,9 @@
       <c r="HC27" t="n">
         <v>23.64</v>
       </c>
+      <c r="HD27" t="n">
+        <v>24.18</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -18188,6 +18269,9 @@
       <c r="HC28" t="n">
         <v>27</v>
       </c>
+      <c r="HD28" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -18825,6 +18909,9 @@
       <c r="HC29" t="n">
         <v>51</v>
       </c>
+      <c r="HD29" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -19462,6 +19549,9 @@
       <c r="HC30" t="n">
         <v>44</v>
       </c>
+      <c r="HD30" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -20099,6 +20189,9 @@
       <c r="HC31" t="n">
         <v>34</v>
       </c>
+      <c r="HD31" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -20736,6 +20829,9 @@
       <c r="HC32" t="n">
         <v>3.09</v>
       </c>
+      <c r="HD32" t="n">
+        <v>2.82</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -21373,6 +21469,9 @@
       <c r="HC33" t="n">
         <v>5.67</v>
       </c>
+      <c r="HD33" t="n">
+        <v>3.88</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -22010,6 +22109,9 @@
       <c r="HC34" t="n">
         <v>29.4</v>
       </c>
+      <c r="HD34" t="n">
+        <v>35.5</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -22647,6 +22749,9 @@
       <c r="HC35" t="n">
         <v>17.6</v>
       </c>
+      <c r="HD35" t="n">
+        <v>25.8</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -23284,6 +23389,9 @@
       <c r="HC36" t="n">
         <v>187.3</v>
       </c>
+      <c r="HD36" t="n">
+        <v>186.2</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -23921,6 +24029,9 @@
       <c r="HC37" t="n">
         <v>87.3</v>
       </c>
+      <c r="HD37" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -24558,6 +24669,9 @@
       <c r="HC38" t="n">
         <v>25.24</v>
       </c>
+      <c r="HD38" t="n">
+        <v>25.58</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -25195,6 +25309,9 @@
       <c r="HC39" t="n">
         <v>82.8</v>
       </c>
+      <c r="HD39" t="n">
+        <v>91.40000000000001</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -25832,6 +25949,9 @@
       <c r="HC40" t="n">
         <v>8</v>
       </c>
+      <c r="HD40" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -26469,6 +26589,9 @@
       <c r="HC41" t="n">
         <v>7</v>
       </c>
+      <c r="HD41" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -27106,6 +27229,9 @@
       <c r="HC42" t="n">
         <v>4</v>
       </c>
+      <c r="HD42" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -27743,6 +27869,9 @@
       <c r="HC43" t="n">
         <v>3</v>
       </c>
+      <c r="HD43" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -28380,6 +28509,9 @@
       <c r="HC44" t="n">
         <v>107</v>
       </c>
+      <c r="HD44" t="n">
+        <v>111</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -29017,6 +29149,9 @@
       <c r="HC45" t="n">
         <v>144</v>
       </c>
+      <c r="HD45" t="n">
+        <v>149</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -29654,6 +29789,9 @@
       <c r="HC46" t="n">
         <v>178</v>
       </c>
+      <c r="HD46" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -30291,6 +30429,9 @@
       <c r="HC47" t="n">
         <v>68.5</v>
       </c>
+      <c r="HD47" t="n">
+        <v>71.8</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -30928,6 +31069,9 @@
       <c r="HC48" t="n">
         <v>51</v>
       </c>
+      <c r="HD48" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -31565,6 +31709,9 @@
       <c r="HC49" t="n">
         <v>7</v>
       </c>
+      <c r="HD49" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -32202,6 +32349,9 @@
       <c r="HC50" t="n">
         <v>7</v>
       </c>
+      <c r="HD50" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -32839,6 +32989,9 @@
       <c r="HC51" t="n">
         <v>27</v>
       </c>
+      <c r="HD51" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -33476,6 +33629,9 @@
       <c r="HC52" t="n">
         <v>44</v>
       </c>
+      <c r="HD52" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -34113,6 +34269,9 @@
       <c r="HC53" t="n">
         <v>39</v>
       </c>
+      <c r="HD53" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -34750,6 +34909,9 @@
       <c r="HC54" t="n">
         <v>0</v>
       </c>
+      <c r="HD54" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -35387,6 +35549,9 @@
       <c r="HC55" t="n">
         <v>4</v>
       </c>
+      <c r="HD55" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -36024,6 +36189,9 @@
       <c r="HC56" t="n">
         <v>66.7</v>
       </c>
+      <c r="HD56" t="n">
+        <v>37.5</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -36661,6 +36829,9 @@
       <c r="HC57" t="n">
         <v>179</v>
       </c>
+      <c r="HD57" t="n">
+        <v>180</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -37298,6 +37469,9 @@
       <c r="HC58" t="n">
         <v>95</v>
       </c>
+      <c r="HD58" t="n">
+        <v>106</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -37935,6 +38109,9 @@
       <c r="HC59" t="n">
         <v>274</v>
       </c>
+      <c r="HD59" t="n">
+        <v>286</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -38572,6 +38749,9 @@
       <c r="HC60" t="n">
         <v>1.88</v>
       </c>
+      <c r="HD60" t="n">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -39209,6 +39389,9 @@
       <c r="HC61" t="n">
         <v>59</v>
       </c>
+      <c r="HD61" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -39846,6 +40029,9 @@
       <c r="HC62" t="n">
         <v>50</v>
       </c>
+      <c r="HD62" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -40483,6 +40669,9 @@
       <c r="HC63" t="n">
         <v>44</v>
       </c>
+      <c r="HD63" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -41120,6 +41309,9 @@
       <c r="HC64" t="n">
         <v>15</v>
       </c>
+      <c r="HD64" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -41757,6 +41949,9 @@
       <c r="HC65" t="n">
         <v>17</v>
       </c>
+      <c r="HD65" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -42394,6 +42589,9 @@
       <c r="HC66" t="n">
         <v>10</v>
       </c>
+      <c r="HD66" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -43031,6 +43229,9 @@
       <c r="HC67" t="n">
         <v>7</v>
       </c>
+      <c r="HD67" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -43668,6 +43869,9 @@
       <c r="HC68" t="n">
         <v>7</v>
       </c>
+      <c r="HD68" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -44305,6 +44509,9 @@
       <c r="HC69" t="n">
         <v>3</v>
       </c>
+      <c r="HD69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -44942,6 +45149,9 @@
       <c r="HC70" t="n">
         <v>20</v>
       </c>
+      <c r="HD70" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -45579,6 +45789,9 @@
       <c r="HC71" t="n">
         <v>50</v>
       </c>
+      <c r="HD71" t="n">
+        <v>71.40000000000001</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -46216,6 +46429,9 @@
       <c r="HC72" t="n">
         <v>27.4</v>
       </c>
+      <c r="HD72" t="n">
+        <v>28.6</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -46853,6 +47069,9 @@
       <c r="HC73" t="n">
         <v>13.7</v>
       </c>
+      <c r="HD73" t="n">
+        <v>20.43</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -47490,6 +47709,9 @@
       <c r="HC74" t="n">
         <v>37</v>
       </c>
+      <c r="HD74" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -48127,6 +48349,9 @@
       <c r="HC75" t="n">
         <v>55</v>
       </c>
+      <c r="HD75" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -48764,6 +48989,9 @@
       <c r="HC76" t="n">
         <v>28</v>
       </c>
+      <c r="HD76" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -49401,6 +49629,9 @@
       <c r="HC77" t="n">
         <v>55</v>
       </c>
+      <c r="HD77" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -50038,6 +50269,9 @@
       <c r="HC78" t="n">
         <v>2.75</v>
       </c>
+      <c r="HD78" t="n">
+        <v>3.57</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -50675,6 +50909,9 @@
       <c r="HC79" t="n">
         <v>5.5</v>
       </c>
+      <c r="HD79" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -51312,6 +51549,9 @@
       <c r="HC80" t="n">
         <v>30.9</v>
       </c>
+      <c r="HD80" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -51949,6 +52189,9 @@
       <c r="HC81" t="n">
         <v>18.2</v>
       </c>
+      <c r="HD81" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -52586,6 +52829,9 @@
       <c r="HC82" t="n">
         <v>188.4</v>
       </c>
+      <c r="HD82" t="n">
+        <v>186.9</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -53223,6 +53469,9 @@
       <c r="HC83" t="n">
         <v>84.59999999999999</v>
       </c>
+      <c r="HD83" t="n">
+        <v>85.3</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -53860,6 +54109,9 @@
       <c r="HC84" t="n">
         <v>26.58</v>
       </c>
+      <c r="HD84" t="n">
+        <v>24.33</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -54497,6 +54749,9 @@
       <c r="HC85" t="n">
         <v>121.1</v>
       </c>
+      <c r="HD85" t="n">
+        <v>75.2</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -55134,6 +55389,9 @@
       <c r="HC86" t="n">
         <v>5</v>
       </c>
+      <c r="HD86" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -55771,6 +56029,9 @@
       <c r="HC87" t="n">
         <v>6</v>
       </c>
+      <c r="HD87" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -56408,6 +56669,9 @@
       <c r="HC88" t="n">
         <v>4</v>
       </c>
+      <c r="HD88" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -57045,6 +57309,9 @@
       <c r="HC89" t="n">
         <v>7</v>
       </c>
+      <c r="HD89" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -57682,6 +57949,9 @@
       <c r="HC90" t="n">
         <v>130</v>
       </c>
+      <c r="HD90" t="n">
+        <v>119</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -58319,6 +58589,9 @@
       <c r="HC91" t="n">
         <v>146</v>
       </c>
+      <c r="HD91" t="n">
+        <v>166</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -58956,6 +59229,9 @@
       <c r="HC92" t="n">
         <v>183</v>
       </c>
+      <c r="HD92" t="n">
+        <v>193</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -59593,6 +59869,9 @@
       <c r="HC93" t="n">
         <v>66.8</v>
       </c>
+      <c r="HD93" t="n">
+        <v>67.5</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -60230,6 +60509,9 @@
       <c r="HC94" t="n">
         <v>55</v>
       </c>
+      <c r="HD94" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -60867,6 +61149,9 @@
       <c r="HC95" t="n">
         <v>7</v>
       </c>
+      <c r="HD95" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -61504,6 +61789,9 @@
       <c r="HC96" t="n">
         <v>13</v>
       </c>
+      <c r="HD96" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -62141,6 +62429,9 @@
       <c r="HC97" t="n">
         <v>37</v>
       </c>
+      <c r="HD97" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -62778,6 +63069,9 @@
       <c r="HC98" t="n">
         <v>28</v>
       </c>
+      <c r="HD98" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -63415,6 +63709,9 @@
       <c r="HC99" t="n">
         <v>63</v>
       </c>
+      <c r="HD99" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -64052,6 +64349,9 @@
       <c r="HC100" t="n">
         <v>0</v>
       </c>
+      <c r="HD100" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -64689,6 +64989,9 @@
       <c r="HC101" t="n">
         <v>7</v>
       </c>
+      <c r="HD101" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -65326,8 +65629,11 @@
       <c r="HC102" t="n">
         <v>70</v>
       </c>
+      <c r="HD102" t="n">
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Fremantle_stats.xlsx
+++ b/Fremantle_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HD102"/>
+  <dimension ref="A1:HE102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -992,6 +992,9 @@
       <c r="HD1" t="n">
         <v>10149</v>
       </c>
+      <c r="HE1" t="n">
+        <v>10188</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1632,6 +1635,9 @@
       <c r="HD2" t="n">
         <v>2020</v>
       </c>
+      <c r="HE2" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2272,6 +2278,9 @@
       <c r="HD3" t="n">
         <v>4</v>
       </c>
+      <c r="HE3" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2912,6 +2921,9 @@
       <c r="HD4" t="n">
         <v>1</v>
       </c>
+      <c r="HE4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3552,6 +3564,9 @@
       <c r="HD5" t="n">
         <v>0</v>
       </c>
+      <c r="HE5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4192,6 +4207,9 @@
       <c r="HD6" t="n">
         <v>51</v>
       </c>
+      <c r="HE6" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4832,6 +4850,9 @@
       <c r="HD7" t="n">
         <v>64</v>
       </c>
+      <c r="HE7" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5472,6 +5493,9 @@
       <c r="HD8" t="n">
         <v>-13</v>
       </c>
+      <c r="HE8" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6112,6 +6136,9 @@
       <c r="HD9" t="n">
         <v>0</v>
       </c>
+      <c r="HE9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6752,6 +6779,9 @@
       <c r="HD10" t="n">
         <v>8</v>
       </c>
+      <c r="HE10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7392,6 +7422,9 @@
       <c r="HD11" t="n">
         <v>163</v>
       </c>
+      <c r="HE11" t="n">
+        <v>197</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8032,6 +8065,9 @@
       <c r="HD12" t="n">
         <v>103</v>
       </c>
+      <c r="HE12" t="n">
+        <v>88</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8672,6 +8708,9 @@
       <c r="HD13" t="n">
         <v>266</v>
       </c>
+      <c r="HE13" t="n">
+        <v>285</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9312,6 +9351,9 @@
       <c r="HD14" t="n">
         <v>1.58</v>
       </c>
+      <c r="HE14" t="n">
+        <v>2.24</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -9952,6 +9994,9 @@
       <c r="HD15" t="n">
         <v>81</v>
       </c>
+      <c r="HE15" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10592,6 +10637,9 @@
       <c r="HD16" t="n">
         <v>51</v>
       </c>
+      <c r="HE16" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11232,6 +11280,9 @@
       <c r="HD17" t="n">
         <v>18</v>
       </c>
+      <c r="HE17" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -11872,6 +11923,9 @@
       <c r="HD18" t="n">
         <v>20</v>
       </c>
+      <c r="HE18" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -12512,6 +12566,9 @@
       <c r="HD19" t="n">
         <v>14</v>
       </c>
+      <c r="HE19" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -13152,6 +13209,9 @@
       <c r="HD20" t="n">
         <v>8</v>
       </c>
+      <c r="HE20" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -13792,6 +13852,9 @@
       <c r="HD21" t="n">
         <v>3</v>
       </c>
+      <c r="HE21" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -14432,6 +14495,9 @@
       <c r="HD22" t="n">
         <v>3</v>
       </c>
+      <c r="HE22" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -15072,6 +15138,9 @@
       <c r="HD23" t="n">
         <v>0</v>
       </c>
+      <c r="HE23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -15712,6 +15781,9 @@
       <c r="HD24" t="n">
         <v>11</v>
       </c>
+      <c r="HE24" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -16352,6 +16424,9 @@
       <c r="HD25" t="n">
         <v>72.7</v>
       </c>
+      <c r="HE25" t="n">
+        <v>57.1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -16992,6 +17067,9 @@
       <c r="HD26" t="n">
         <v>33.25</v>
       </c>
+      <c r="HE26" t="n">
+        <v>35.62</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -17632,6 +17710,9 @@
       <c r="HD27" t="n">
         <v>24.18</v>
       </c>
+      <c r="HE27" t="n">
+        <v>20.36</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -18272,6 +18353,9 @@
       <c r="HD28" t="n">
         <v>22</v>
       </c>
+      <c r="HE28" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -18912,6 +18996,9 @@
       <c r="HD29" t="n">
         <v>48</v>
       </c>
+      <c r="HE29" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -19552,6 +19639,9 @@
       <c r="HD30" t="n">
         <v>40</v>
       </c>
+      <c r="HE30" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -20192,6 +20282,9 @@
       <c r="HD31" t="n">
         <v>31</v>
       </c>
+      <c r="HE31" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -20832,6 +20925,9 @@
       <c r="HD32" t="n">
         <v>2.82</v>
       </c>
+      <c r="HE32" t="n">
+        <v>3.07</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -21472,6 +21568,9 @@
       <c r="HD33" t="n">
         <v>3.88</v>
       </c>
+      <c r="HE33" t="n">
+        <v>5.38</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -22112,6 +22211,9 @@
       <c r="HD34" t="n">
         <v>35.5</v>
       </c>
+      <c r="HE34" t="n">
+        <v>30.2</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -22752,6 +22854,9 @@
       <c r="HD35" t="n">
         <v>25.8</v>
       </c>
+      <c r="HE35" t="n">
+        <v>18.6</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -23392,6 +23497,9 @@
       <c r="HD36" t="n">
         <v>186.2</v>
       </c>
+      <c r="HE36" t="n">
+        <v>188.1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -24032,6 +24140,9 @@
       <c r="HD37" t="n">
         <v>87</v>
       </c>
+      <c r="HE37" t="n">
+        <v>87.90000000000001</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -24672,6 +24783,9 @@
       <c r="HD38" t="n">
         <v>25.58</v>
       </c>
+      <c r="HE38" t="n">
+        <v>24.66</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -25312,6 +25426,9 @@
       <c r="HD39" t="n">
         <v>91.40000000000001</v>
       </c>
+      <c r="HE39" t="n">
+        <v>75.8</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -25952,6 +26069,9 @@
       <c r="HD40" t="n">
         <v>7</v>
       </c>
+      <c r="HE40" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -26592,6 +26712,9 @@
       <c r="HD41" t="n">
         <v>7</v>
       </c>
+      <c r="HE41" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -27232,6 +27355,9 @@
       <c r="HD42" t="n">
         <v>4</v>
       </c>
+      <c r="HE42" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -27872,6 +27998,9 @@
       <c r="HD43" t="n">
         <v>4</v>
       </c>
+      <c r="HE43" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -28512,6 +28641,9 @@
       <c r="HD44" t="n">
         <v>111</v>
       </c>
+      <c r="HE44" t="n">
+        <v>98</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -29152,6 +29284,9 @@
       <c r="HD45" t="n">
         <v>149</v>
       </c>
+      <c r="HE45" t="n">
+        <v>183</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -29792,6 +29927,9 @@
       <c r="HD46" t="n">
         <v>191</v>
       </c>
+      <c r="HE46" t="n">
+        <v>228</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -30432,6 +30570,9 @@
       <c r="HD47" t="n">
         <v>71.8</v>
       </c>
+      <c r="HE47" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -31072,6 +31213,9 @@
       <c r="HD48" t="n">
         <v>48</v>
       </c>
+      <c r="HE48" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -31712,6 +31856,9 @@
       <c r="HD49" t="n">
         <v>15</v>
       </c>
+      <c r="HE49" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -32352,6 +32499,9 @@
       <c r="HD50" t="n">
         <v>8</v>
       </c>
+      <c r="HE50" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -32992,6 +33142,9 @@
       <c r="HD51" t="n">
         <v>22</v>
       </c>
+      <c r="HE51" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -33632,6 +33785,9 @@
       <c r="HD52" t="n">
         <v>40</v>
       </c>
+      <c r="HE52" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -34272,6 +34428,9 @@
       <c r="HD53" t="n">
         <v>30</v>
       </c>
+      <c r="HE53" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -34912,6 +35071,9 @@
       <c r="HD54" t="n">
         <v>1</v>
       </c>
+      <c r="HE54" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -35552,6 +35714,9 @@
       <c r="HD55" t="n">
         <v>3</v>
       </c>
+      <c r="HE55" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -36192,6 +36357,9 @@
       <c r="HD56" t="n">
         <v>37.5</v>
       </c>
+      <c r="HE56" t="n">
+        <v>87.5</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -36832,6 +37000,9 @@
       <c r="HD57" t="n">
         <v>180</v>
       </c>
+      <c r="HE57" t="n">
+        <v>170</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -37472,6 +37643,9 @@
       <c r="HD58" t="n">
         <v>106</v>
       </c>
+      <c r="HE58" t="n">
+        <v>133</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -38112,6 +38286,9 @@
       <c r="HD59" t="n">
         <v>286</v>
       </c>
+      <c r="HE59" t="n">
+        <v>303</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -38752,6 +38929,9 @@
       <c r="HD60" t="n">
         <v>1.7</v>
       </c>
+      <c r="HE60" t="n">
+        <v>1.28</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -39392,6 +39572,9 @@
       <c r="HD61" t="n">
         <v>82</v>
       </c>
+      <c r="HE61" t="n">
+        <v>79</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -40032,6 +40215,9 @@
       <c r="HD62" t="n">
         <v>47</v>
       </c>
+      <c r="HE62" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -40672,6 +40858,9 @@
       <c r="HD63" t="n">
         <v>42</v>
       </c>
+      <c r="HE63" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -41312,6 +41501,9 @@
       <c r="HD64" t="n">
         <v>14</v>
       </c>
+      <c r="HE64" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -41952,6 +42144,9 @@
       <c r="HD65" t="n">
         <v>20</v>
       </c>
+      <c r="HE65" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -42592,6 +42787,9 @@
       <c r="HD66" t="n">
         <v>10</v>
       </c>
+      <c r="HE66" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -43232,6 +43430,9 @@
       <c r="HD67" t="n">
         <v>8</v>
       </c>
+      <c r="HE67" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -43872,6 +44073,9 @@
       <c r="HD68" t="n">
         <v>3</v>
       </c>
+      <c r="HE68" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -44512,6 +44716,9 @@
       <c r="HD69" t="n">
         <v>1</v>
       </c>
+      <c r="HE69" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -45152,6 +45359,9 @@
       <c r="HD70" t="n">
         <v>14</v>
       </c>
+      <c r="HE70" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -45792,6 +46002,9 @@
       <c r="HD71" t="n">
         <v>71.40000000000001</v>
       </c>
+      <c r="HE71" t="n">
+        <v>28.6</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -46432,6 +46645,9 @@
       <c r="HD72" t="n">
         <v>28.6</v>
       </c>
+      <c r="HE72" t="n">
+        <v>75.75</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -47072,6 +47288,9 @@
       <c r="HD73" t="n">
         <v>20.43</v>
       </c>
+      <c r="HE73" t="n">
+        <v>21.64</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -47712,6 +47931,9 @@
       <c r="HD74" t="n">
         <v>37</v>
       </c>
+      <c r="HE74" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -48352,6 +48574,9 @@
       <c r="HD75" t="n">
         <v>54</v>
       </c>
+      <c r="HE75" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -48992,6 +49217,9 @@
       <c r="HD76" t="n">
         <v>22</v>
       </c>
+      <c r="HE76" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -49632,6 +49860,9 @@
       <c r="HD77" t="n">
         <v>50</v>
       </c>
+      <c r="HE77" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -50272,6 +50503,9 @@
       <c r="HD78" t="n">
         <v>3.57</v>
       </c>
+      <c r="HE78" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -50912,6 +51146,9 @@
       <c r="HD79" t="n">
         <v>5</v>
       </c>
+      <c r="HE79" t="n">
+        <v>10.5</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -51552,6 +51789,9 @@
       <c r="HD80" t="n">
         <v>26</v>
       </c>
+      <c r="HE80" t="n">
+        <v>26.2</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -52192,6 +52432,9 @@
       <c r="HD81" t="n">
         <v>20</v>
       </c>
+      <c r="HE81" t="n">
+        <v>9.5</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -52832,6 +53075,9 @@
       <c r="HD82" t="n">
         <v>186.9</v>
       </c>
+      <c r="HE82" t="n">
+        <v>187</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -53472,6 +53718,9 @@
       <c r="HD83" t="n">
         <v>85.3</v>
       </c>
+      <c r="HE83" t="n">
+        <v>85.59999999999999</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -54112,6 +54361,9 @@
       <c r="HD84" t="n">
         <v>24.33</v>
       </c>
+      <c r="HE84" t="n">
+        <v>25.24</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -54752,6 +55004,9 @@
       <c r="HD85" t="n">
         <v>75.2</v>
       </c>
+      <c r="HE85" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -55392,6 +55647,9 @@
       <c r="HD86" t="n">
         <v>12</v>
       </c>
+      <c r="HE86" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -56032,6 +56290,9 @@
       <c r="HD87" t="n">
         <v>2</v>
       </c>
+      <c r="HE87" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -56672,6 +56933,9 @@
       <c r="HD88" t="n">
         <v>5</v>
       </c>
+      <c r="HE88" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -57312,6 +57576,9 @@
       <c r="HD89" t="n">
         <v>3</v>
       </c>
+      <c r="HE89" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -57952,6 +58219,9 @@
       <c r="HD90" t="n">
         <v>119</v>
       </c>
+      <c r="HE90" t="n">
+        <v>106</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -58592,6 +58862,9 @@
       <c r="HD91" t="n">
         <v>166</v>
       </c>
+      <c r="HE91" t="n">
+        <v>194</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -59232,6 +59505,9 @@
       <c r="HD92" t="n">
         <v>193</v>
       </c>
+      <c r="HE92" t="n">
+        <v>228</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -59872,6 +60148,9 @@
       <c r="HD93" t="n">
         <v>67.5</v>
       </c>
+      <c r="HE93" t="n">
+        <v>75.2</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -60512,6 +60791,9 @@
       <c r="HD94" t="n">
         <v>54</v>
       </c>
+      <c r="HE94" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -61152,6 +61434,9 @@
       <c r="HD95" t="n">
         <v>11</v>
       </c>
+      <c r="HE95" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -61792,6 +62077,9 @@
       <c r="HD96" t="n">
         <v>9</v>
       </c>
+      <c r="HE96" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -62432,6 +62720,9 @@
       <c r="HD97" t="n">
         <v>37</v>
       </c>
+      <c r="HE97" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -63072,6 +63363,9 @@
       <c r="HD98" t="n">
         <v>22</v>
       </c>
+      <c r="HE98" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -63712,6 +64006,9 @@
       <c r="HD99" t="n">
         <v>38</v>
       </c>
+      <c r="HE99" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -64352,6 +64649,9 @@
       <c r="HD100" t="n">
         <v>3</v>
       </c>
+      <c r="HE100" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -64992,6 +65292,9 @@
       <c r="HD101" t="n">
         <v>8</v>
       </c>
+      <c r="HE101" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -65632,6 +65935,9 @@
       <c r="HD102" t="n">
         <v>80</v>
       </c>
+      <c r="HE102" t="n">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/Fremantle_stats.xlsx
+++ b/Fremantle_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HE102"/>
+  <dimension ref="A1:HH102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -995,6 +995,15 @@
       <c r="HE1" t="n">
         <v>10188</v>
       </c>
+      <c r="HF1" t="n">
+        <v>10211</v>
+      </c>
+      <c r="HG1" t="n">
+        <v>10225</v>
+      </c>
+      <c r="HH1" t="n">
+        <v>10235</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1638,6 +1647,15 @@
       <c r="HE2" t="n">
         <v>2020</v>
       </c>
+      <c r="HF2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HG2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HH2" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2281,6 +2299,15 @@
       <c r="HE3" t="n">
         <v>5</v>
       </c>
+      <c r="HF3" t="n">
+        <v>6</v>
+      </c>
+      <c r="HG3" t="n">
+        <v>7</v>
+      </c>
+      <c r="HH3" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2924,6 +2951,15 @@
       <c r="HE4" t="n">
         <v>1</v>
       </c>
+      <c r="HF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3567,6 +3603,15 @@
       <c r="HE5" t="n">
         <v>1</v>
       </c>
+      <c r="HF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG5" t="n">
+        <v>1</v>
+      </c>
+      <c r="HH5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4210,6 +4255,15 @@
       <c r="HE6" t="n">
         <v>54</v>
       </c>
+      <c r="HF6" t="n">
+        <v>79</v>
+      </c>
+      <c r="HG6" t="n">
+        <v>32</v>
+      </c>
+      <c r="HH6" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4853,6 +4907,15 @@
       <c r="HE7" t="n">
         <v>34</v>
       </c>
+      <c r="HF7" t="n">
+        <v>73</v>
+      </c>
+      <c r="HG7" t="n">
+        <v>62</v>
+      </c>
+      <c r="HH7" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5496,6 +5559,15 @@
       <c r="HE8" t="n">
         <v>20</v>
       </c>
+      <c r="HF8" t="n">
+        <v>6</v>
+      </c>
+      <c r="HG8" t="n">
+        <v>-30</v>
+      </c>
+      <c r="HH8" t="n">
+        <v>-32</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6139,6 +6211,15 @@
       <c r="HE9" t="n">
         <v>1</v>
       </c>
+      <c r="HF9" t="n">
+        <v>1</v>
+      </c>
+      <c r="HG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6782,6 +6863,15 @@
       <c r="HE10" t="n">
         <v>1</v>
       </c>
+      <c r="HF10" t="n">
+        <v>15</v>
+      </c>
+      <c r="HG10" t="n">
+        <v>17</v>
+      </c>
+      <c r="HH10" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7425,6 +7515,15 @@
       <c r="HE11" t="n">
         <v>197</v>
       </c>
+      <c r="HF11" t="n">
+        <v>181</v>
+      </c>
+      <c r="HG11" t="n">
+        <v>154</v>
+      </c>
+      <c r="HH11" t="n">
+        <v>157</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8068,6 +8167,15 @@
       <c r="HE12" t="n">
         <v>88</v>
       </c>
+      <c r="HF12" t="n">
+        <v>112</v>
+      </c>
+      <c r="HG12" t="n">
+        <v>124</v>
+      </c>
+      <c r="HH12" t="n">
+        <v>125</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8711,6 +8819,15 @@
       <c r="HE13" t="n">
         <v>285</v>
       </c>
+      <c r="HF13" t="n">
+        <v>293</v>
+      </c>
+      <c r="HG13" t="n">
+        <v>278</v>
+      </c>
+      <c r="HH13" t="n">
+        <v>282</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9354,6 +9471,15 @@
       <c r="HE14" t="n">
         <v>2.24</v>
       </c>
+      <c r="HF14" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="HG14" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="HH14" t="n">
+        <v>1.26</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -9997,6 +10123,15 @@
       <c r="HE15" t="n">
         <v>109</v>
       </c>
+      <c r="HF15" t="n">
+        <v>89</v>
+      </c>
+      <c r="HG15" t="n">
+        <v>68</v>
+      </c>
+      <c r="HH15" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10640,6 +10775,15 @@
       <c r="HE16" t="n">
         <v>41</v>
       </c>
+      <c r="HF16" t="n">
+        <v>33</v>
+      </c>
+      <c r="HG16" t="n">
+        <v>46</v>
+      </c>
+      <c r="HH16" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11283,6 +11427,15 @@
       <c r="HE17" t="n">
         <v>31</v>
       </c>
+      <c r="HF17" t="n">
+        <v>27</v>
+      </c>
+      <c r="HG17" t="n">
+        <v>22</v>
+      </c>
+      <c r="HH17" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -11926,6 +12079,15 @@
       <c r="HE18" t="n">
         <v>17</v>
       </c>
+      <c r="HF18" t="n">
+        <v>22</v>
+      </c>
+      <c r="HG18" t="n">
+        <v>13</v>
+      </c>
+      <c r="HH18" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -12569,6 +12731,15 @@
       <c r="HE19" t="n">
         <v>13</v>
       </c>
+      <c r="HF19" t="n">
+        <v>15</v>
+      </c>
+      <c r="HG19" t="n">
+        <v>13</v>
+      </c>
+      <c r="HH19" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -13212,6 +13383,15 @@
       <c r="HE20" t="n">
         <v>8</v>
       </c>
+      <c r="HF20" t="n">
+        <v>12</v>
+      </c>
+      <c r="HG20" t="n">
+        <v>5</v>
+      </c>
+      <c r="HH20" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -13855,6 +14035,15 @@
       <c r="HE21" t="n">
         <v>7</v>
       </c>
+      <c r="HF21" t="n">
+        <v>9</v>
+      </c>
+      <c r="HG21" t="n">
+        <v>4</v>
+      </c>
+      <c r="HH21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -14498,6 +14687,15 @@
       <c r="HE22" t="n">
         <v>5</v>
       </c>
+      <c r="HF22" t="n">
+        <v>5</v>
+      </c>
+      <c r="HG22" t="n">
+        <v>1</v>
+      </c>
+      <c r="HH22" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -15141,6 +15339,15 @@
       <c r="HE23" t="n">
         <v>1</v>
       </c>
+      <c r="HF23" t="n">
+        <v>2</v>
+      </c>
+      <c r="HG23" t="n">
+        <v>1</v>
+      </c>
+      <c r="HH23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -15784,6 +15991,15 @@
       <c r="HE24" t="n">
         <v>14</v>
       </c>
+      <c r="HF24" t="n">
+        <v>19</v>
+      </c>
+      <c r="HG24" t="n">
+        <v>7</v>
+      </c>
+      <c r="HH24" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -16427,6 +16643,15 @@
       <c r="HE25" t="n">
         <v>57.1</v>
       </c>
+      <c r="HF25" t="n">
+        <v>63.2</v>
+      </c>
+      <c r="HG25" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="HH25" t="n">
+        <v>33.3</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -17070,6 +17295,15 @@
       <c r="HE26" t="n">
         <v>35.62</v>
       </c>
+      <c r="HF26" t="n">
+        <v>24.42</v>
+      </c>
+      <c r="HG26" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="HH26" t="n">
+        <v>141</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -17713,6 +17947,15 @@
       <c r="HE27" t="n">
         <v>20.36</v>
       </c>
+      <c r="HF27" t="n">
+        <v>15.42</v>
+      </c>
+      <c r="HG27" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="HH27" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -18356,6 +18599,15 @@
       <c r="HE28" t="n">
         <v>20</v>
       </c>
+      <c r="HF28" t="n">
+        <v>30</v>
+      </c>
+      <c r="HG28" t="n">
+        <v>23</v>
+      </c>
+      <c r="HH28" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -18999,6 +19251,15 @@
       <c r="HE29" t="n">
         <v>40</v>
       </c>
+      <c r="HF29" t="n">
+        <v>40</v>
+      </c>
+      <c r="HG29" t="n">
+        <v>41</v>
+      </c>
+      <c r="HH29" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -19642,6 +19903,15 @@
       <c r="HE30" t="n">
         <v>37</v>
       </c>
+      <c r="HF30" t="n">
+        <v>28</v>
+      </c>
+      <c r="HG30" t="n">
+        <v>31</v>
+      </c>
+      <c r="HH30" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -20285,6 +20555,15 @@
       <c r="HE31" t="n">
         <v>43</v>
       </c>
+      <c r="HF31" t="n">
+        <v>43</v>
+      </c>
+      <c r="HG31" t="n">
+        <v>26</v>
+      </c>
+      <c r="HH31" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -20928,6 +21207,15 @@
       <c r="HE32" t="n">
         <v>3.07</v>
       </c>
+      <c r="HF32" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="HG32" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="HH32" t="n">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -21571,6 +21859,15 @@
       <c r="HE33" t="n">
         <v>5.38</v>
       </c>
+      <c r="HF33" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="HG33" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="HH33" t="n">
+        <v>13.5</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -22214,6 +22511,15 @@
       <c r="HE34" t="n">
         <v>30.2</v>
       </c>
+      <c r="HF34" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="HG34" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="HH34" t="n">
+        <v>18.5</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -22857,6 +23163,15 @@
       <c r="HE35" t="n">
         <v>18.6</v>
       </c>
+      <c r="HF35" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="HG35" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="HH35" t="n">
+        <v>7.4</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -23500,6 +23815,15 @@
       <c r="HE36" t="n">
         <v>188.1</v>
       </c>
+      <c r="HF36" t="n">
+        <v>187.7</v>
+      </c>
+      <c r="HG36" t="n">
+        <v>187.6</v>
+      </c>
+      <c r="HH36" t="n">
+        <v>187.3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -24143,6 +24467,15 @@
       <c r="HE37" t="n">
         <v>87.90000000000001</v>
       </c>
+      <c r="HF37" t="n">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="HG37" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="HH37" t="n">
+        <v>86.8</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -24786,6 +25119,15 @@
       <c r="HE38" t="n">
         <v>24.66</v>
       </c>
+      <c r="HF38" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="HG38" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="HH38" t="n">
+        <v>24.74</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -25429,6 +25771,15 @@
       <c r="HE39" t="n">
         <v>75.8</v>
       </c>
+      <c r="HF39" t="n">
+        <v>82.90000000000001</v>
+      </c>
+      <c r="HG39" t="n">
+        <v>77.3</v>
+      </c>
+      <c r="HH39" t="n">
+        <v>74.7</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -26072,6 +26423,15 @@
       <c r="HE40" t="n">
         <v>10</v>
       </c>
+      <c r="HF40" t="n">
+        <v>9</v>
+      </c>
+      <c r="HG40" t="n">
+        <v>10</v>
+      </c>
+      <c r="HH40" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -26715,6 +27075,15 @@
       <c r="HE41" t="n">
         <v>7</v>
       </c>
+      <c r="HF41" t="n">
+        <v>7</v>
+      </c>
+      <c r="HG41" t="n">
+        <v>7</v>
+      </c>
+      <c r="HH41" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -27358,6 +27727,15 @@
       <c r="HE42" t="n">
         <v>2</v>
       </c>
+      <c r="HF42" t="n">
+        <v>2</v>
+      </c>
+      <c r="HG42" t="n">
+        <v>2</v>
+      </c>
+      <c r="HH42" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -28001,6 +28379,15 @@
       <c r="HE43" t="n">
         <v>3</v>
       </c>
+      <c r="HF43" t="n">
+        <v>4</v>
+      </c>
+      <c r="HG43" t="n">
+        <v>3</v>
+      </c>
+      <c r="HH43" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -28644,6 +29031,15 @@
       <c r="HE44" t="n">
         <v>98</v>
       </c>
+      <c r="HF44" t="n">
+        <v>106</v>
+      </c>
+      <c r="HG44" t="n">
+        <v>113</v>
+      </c>
+      <c r="HH44" t="n">
+        <v>135</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -29287,6 +29683,15 @@
       <c r="HE45" t="n">
         <v>183</v>
       </c>
+      <c r="HF45" t="n">
+        <v>184</v>
+      </c>
+      <c r="HG45" t="n">
+        <v>168</v>
+      </c>
+      <c r="HH45" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -29930,6 +30335,15 @@
       <c r="HE46" t="n">
         <v>228</v>
       </c>
+      <c r="HF46" t="n">
+        <v>229</v>
+      </c>
+      <c r="HG46" t="n">
+        <v>205</v>
+      </c>
+      <c r="HH46" t="n">
+        <v>164</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -30573,6 +30987,15 @@
       <c r="HE47" t="n">
         <v>80</v>
       </c>
+      <c r="HF47" t="n">
+        <v>78.2</v>
+      </c>
+      <c r="HG47" t="n">
+        <v>73.7</v>
+      </c>
+      <c r="HH47" t="n">
+        <v>58.2</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -31216,6 +31639,15 @@
       <c r="HE48" t="n">
         <v>40</v>
       </c>
+      <c r="HF48" t="n">
+        <v>40</v>
+      </c>
+      <c r="HG48" t="n">
+        <v>41</v>
+      </c>
+      <c r="HH48" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -31859,6 +32291,15 @@
       <c r="HE49" t="n">
         <v>11</v>
       </c>
+      <c r="HF49" t="n">
+        <v>10</v>
+      </c>
+      <c r="HG49" t="n">
+        <v>10</v>
+      </c>
+      <c r="HH49" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -32502,6 +32943,15 @@
       <c r="HE50" t="n">
         <v>15</v>
       </c>
+      <c r="HF50" t="n">
+        <v>13</v>
+      </c>
+      <c r="HG50" t="n">
+        <v>6</v>
+      </c>
+      <c r="HH50" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -33145,6 +33595,15 @@
       <c r="HE51" t="n">
         <v>20</v>
       </c>
+      <c r="HF51" t="n">
+        <v>30</v>
+      </c>
+      <c r="HG51" t="n">
+        <v>23</v>
+      </c>
+      <c r="HH51" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -33788,6 +34247,15 @@
       <c r="HE52" t="n">
         <v>37</v>
       </c>
+      <c r="HF52" t="n">
+        <v>28</v>
+      </c>
+      <c r="HG52" t="n">
+        <v>31</v>
+      </c>
+      <c r="HH52" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -34431,6 +34899,15 @@
       <c r="HE53" t="n">
         <v>29</v>
       </c>
+      <c r="HF53" t="n">
+        <v>41</v>
+      </c>
+      <c r="HG53" t="n">
+        <v>41</v>
+      </c>
+      <c r="HH53" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -35074,6 +35551,15 @@
       <c r="HE54" t="n">
         <v>6</v>
       </c>
+      <c r="HF54" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG54" t="n">
+        <v>2</v>
+      </c>
+      <c r="HH54" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -35717,6 +36203,15 @@
       <c r="HE55" t="n">
         <v>7</v>
       </c>
+      <c r="HF55" t="n">
+        <v>9</v>
+      </c>
+      <c r="HG55" t="n">
+        <v>4</v>
+      </c>
+      <c r="HH55" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -36360,6 +36855,15 @@
       <c r="HE56" t="n">
         <v>87.5</v>
       </c>
+      <c r="HF56" t="n">
+        <v>75</v>
+      </c>
+      <c r="HG56" t="n">
+        <v>80</v>
+      </c>
+      <c r="HH56" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -37003,6 +37507,15 @@
       <c r="HE57" t="n">
         <v>170</v>
       </c>
+      <c r="HF57" t="n">
+        <v>165</v>
+      </c>
+      <c r="HG57" t="n">
+        <v>210</v>
+      </c>
+      <c r="HH57" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -37646,6 +38159,15 @@
       <c r="HE58" t="n">
         <v>133</v>
       </c>
+      <c r="HF58" t="n">
+        <v>105</v>
+      </c>
+      <c r="HG58" t="n">
+        <v>115</v>
+      </c>
+      <c r="HH58" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -38289,6 +38811,15 @@
       <c r="HE59" t="n">
         <v>303</v>
       </c>
+      <c r="HF59" t="n">
+        <v>270</v>
+      </c>
+      <c r="HG59" t="n">
+        <v>325</v>
+      </c>
+      <c r="HH59" t="n">
+        <v>342</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -38932,6 +39463,15 @@
       <c r="HE60" t="n">
         <v>1.28</v>
       </c>
+      <c r="HF60" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="HG60" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="HH60" t="n">
+        <v>1.26</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -39575,6 +40115,15 @@
       <c r="HE61" t="n">
         <v>79</v>
       </c>
+      <c r="HF61" t="n">
+        <v>66</v>
+      </c>
+      <c r="HG61" t="n">
+        <v>111</v>
+      </c>
+      <c r="HH61" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -40218,6 +40767,15 @@
       <c r="HE62" t="n">
         <v>39</v>
       </c>
+      <c r="HF62" t="n">
+        <v>32</v>
+      </c>
+      <c r="HG62" t="n">
+        <v>45</v>
+      </c>
+      <c r="HH62" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -40861,6 +41419,15 @@
       <c r="HE63" t="n">
         <v>18</v>
       </c>
+      <c r="HF63" t="n">
+        <v>35</v>
+      </c>
+      <c r="HG63" t="n">
+        <v>25</v>
+      </c>
+      <c r="HH63" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -41504,6 +42071,15 @@
       <c r="HE64" t="n">
         <v>13</v>
       </c>
+      <c r="HF64" t="n">
+        <v>15</v>
+      </c>
+      <c r="HG64" t="n">
+        <v>13</v>
+      </c>
+      <c r="HH64" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -42147,6 +42723,15 @@
       <c r="HE65" t="n">
         <v>17</v>
       </c>
+      <c r="HF65" t="n">
+        <v>22</v>
+      </c>
+      <c r="HG65" t="n">
+        <v>13</v>
+      </c>
+      <c r="HH65" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -42790,6 +43375,15 @@
       <c r="HE66" t="n">
         <v>4</v>
       </c>
+      <c r="HF66" t="n">
+        <v>11</v>
+      </c>
+      <c r="HG66" t="n">
+        <v>9</v>
+      </c>
+      <c r="HH66" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -43433,6 +44027,15 @@
       <c r="HE67" t="n">
         <v>2</v>
       </c>
+      <c r="HF67" t="n">
+        <v>3</v>
+      </c>
+      <c r="HG67" t="n">
+        <v>4</v>
+      </c>
+      <c r="HH67" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -44076,6 +44679,15 @@
       <c r="HE68" t="n">
         <v>7</v>
       </c>
+      <c r="HF68" t="n">
+        <v>7</v>
+      </c>
+      <c r="HG68" t="n">
+        <v>6</v>
+      </c>
+      <c r="HH68" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -44719,6 +45331,15 @@
       <c r="HE69" t="n">
         <v>3</v>
       </c>
+      <c r="HF69" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG69" t="n">
+        <v>2</v>
+      </c>
+      <c r="HH69" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -45362,6 +45983,15 @@
       <c r="HE70" t="n">
         <v>14</v>
       </c>
+      <c r="HF70" t="n">
+        <v>18</v>
+      </c>
+      <c r="HG70" t="n">
+        <v>17</v>
+      </c>
+      <c r="HH70" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -46005,6 +46635,15 @@
       <c r="HE71" t="n">
         <v>28.6</v>
       </c>
+      <c r="HF71" t="n">
+        <v>61.1</v>
+      </c>
+      <c r="HG71" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="HH71" t="n">
+        <v>33.3</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -46648,6 +47287,15 @@
       <c r="HE72" t="n">
         <v>75.75</v>
       </c>
+      <c r="HF72" t="n">
+        <v>24.55</v>
+      </c>
+      <c r="HG72" t="n">
+        <v>36.11</v>
+      </c>
+      <c r="HH72" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -47291,6 +47939,15 @@
       <c r="HE73" t="n">
         <v>21.64</v>
       </c>
+      <c r="HF73" t="n">
+        <v>15</v>
+      </c>
+      <c r="HG73" t="n">
+        <v>19.12</v>
+      </c>
+      <c r="HH73" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -47934,6 +48591,15 @@
       <c r="HE74" t="n">
         <v>24</v>
       </c>
+      <c r="HF74" t="n">
+        <v>30</v>
+      </c>
+      <c r="HG74" t="n">
+        <v>28</v>
+      </c>
+      <c r="HH74" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -48577,6 +49243,15 @@
       <c r="HE75" t="n">
         <v>40</v>
       </c>
+      <c r="HF75" t="n">
+        <v>41</v>
+      </c>
+      <c r="HG75" t="n">
+        <v>31</v>
+      </c>
+      <c r="HH75" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -49220,6 +49895,15 @@
       <c r="HE76" t="n">
         <v>33</v>
       </c>
+      <c r="HF76" t="n">
+        <v>31</v>
+      </c>
+      <c r="HG76" t="n">
+        <v>21</v>
+      </c>
+      <c r="HH76" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -49863,6 +50547,15 @@
       <c r="HE77" t="n">
         <v>42</v>
       </c>
+      <c r="HF77" t="n">
+        <v>40</v>
+      </c>
+      <c r="HG77" t="n">
+        <v>41</v>
+      </c>
+      <c r="HH77" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -50506,6 +51199,15 @@
       <c r="HE78" t="n">
         <v>3</v>
       </c>
+      <c r="HF78" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="HG78" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="HH78" t="n">
+        <v>2.61</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -51149,6 +51851,15 @@
       <c r="HE79" t="n">
         <v>10.5</v>
       </c>
+      <c r="HF79" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="HG79" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="HH79" t="n">
+        <v>7.83</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -51792,6 +52503,15 @@
       <c r="HE80" t="n">
         <v>26.2</v>
       </c>
+      <c r="HF80" t="n">
+        <v>45</v>
+      </c>
+      <c r="HG80" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="HH80" t="n">
+        <v>29.8</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -52435,6 +53155,15 @@
       <c r="HE81" t="n">
         <v>9.5</v>
       </c>
+      <c r="HF81" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="HG81" t="n">
+        <v>22</v>
+      </c>
+      <c r="HH81" t="n">
+        <v>12.8</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -53078,6 +53807,15 @@
       <c r="HE82" t="n">
         <v>187</v>
       </c>
+      <c r="HF82" t="n">
+        <v>188</v>
+      </c>
+      <c r="HG82" t="n">
+        <v>188.2</v>
+      </c>
+      <c r="HH82" t="n">
+        <v>188.8</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -53721,6 +54459,15 @@
       <c r="HE83" t="n">
         <v>85.59999999999999</v>
       </c>
+      <c r="HF83" t="n">
+        <v>86</v>
+      </c>
+      <c r="HG83" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="HH83" t="n">
+        <v>88.5</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -54364,6 +55111,15 @@
       <c r="HE84" t="n">
         <v>25.24</v>
       </c>
+      <c r="HF84" t="n">
+        <v>24.49</v>
+      </c>
+      <c r="HG84" t="n">
+        <v>26.24</v>
+      </c>
+      <c r="HH84" t="n">
+        <v>26.24</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -55007,6 +55763,15 @@
       <c r="HE85" t="n">
         <v>81</v>
       </c>
+      <c r="HF85" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="HG85" t="n">
+        <v>116.6</v>
+      </c>
+      <c r="HH85" t="n">
+        <v>110.1</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -55650,6 +56415,15 @@
       <c r="HE86" t="n">
         <v>11</v>
       </c>
+      <c r="HF86" t="n">
+        <v>9</v>
+      </c>
+      <c r="HG86" t="n">
+        <v>7</v>
+      </c>
+      <c r="HH86" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -56293,6 +57067,15 @@
       <c r="HE87" t="n">
         <v>2</v>
       </c>
+      <c r="HF87" t="n">
+        <v>8</v>
+      </c>
+      <c r="HG87" t="n">
+        <v>4</v>
+      </c>
+      <c r="HH87" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -56936,6 +57719,15 @@
       <c r="HE88" t="n">
         <v>4</v>
       </c>
+      <c r="HF88" t="n">
+        <v>3</v>
+      </c>
+      <c r="HG88" t="n">
+        <v>2</v>
+      </c>
+      <c r="HH88" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -57579,6 +58371,15 @@
       <c r="HE89" t="n">
         <v>5</v>
       </c>
+      <c r="HF89" t="n">
+        <v>2</v>
+      </c>
+      <c r="HG89" t="n">
+        <v>9</v>
+      </c>
+      <c r="HH89" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -58222,6 +59023,15 @@
       <c r="HE90" t="n">
         <v>106</v>
       </c>
+      <c r="HF90" t="n">
+        <v>111</v>
+      </c>
+      <c r="HG90" t="n">
+        <v>122</v>
+      </c>
+      <c r="HH90" t="n">
+        <v>166</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -58865,6 +59675,15 @@
       <c r="HE91" t="n">
         <v>194</v>
       </c>
+      <c r="HF91" t="n">
+        <v>151</v>
+      </c>
+      <c r="HG91" t="n">
+        <v>208</v>
+      </c>
+      <c r="HH91" t="n">
+        <v>168</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -59508,6 +60327,15 @@
       <c r="HE92" t="n">
         <v>228</v>
       </c>
+      <c r="HF92" t="n">
+        <v>194</v>
+      </c>
+      <c r="HG92" t="n">
+        <v>253</v>
+      </c>
+      <c r="HH92" t="n">
+        <v>201</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -60151,6 +60979,15 @@
       <c r="HE93" t="n">
         <v>75.2</v>
       </c>
+      <c r="HF93" t="n">
+        <v>71.90000000000001</v>
+      </c>
+      <c r="HG93" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="HH93" t="n">
+        <v>58.8</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -60794,6 +61631,15 @@
       <c r="HE94" t="n">
         <v>40</v>
       </c>
+      <c r="HF94" t="n">
+        <v>41</v>
+      </c>
+      <c r="HG94" t="n">
+        <v>31</v>
+      </c>
+      <c r="HH94" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -61437,6 +62283,15 @@
       <c r="HE95" t="n">
         <v>10</v>
       </c>
+      <c r="HF95" t="n">
+        <v>6</v>
+      </c>
+      <c r="HG95" t="n">
+        <v>14</v>
+      </c>
+      <c r="HH95" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -62080,6 +62935,15 @@
       <c r="HE96" t="n">
         <v>6</v>
       </c>
+      <c r="HF96" t="n">
+        <v>7</v>
+      </c>
+      <c r="HG96" t="n">
+        <v>7</v>
+      </c>
+      <c r="HH96" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -62723,6 +63587,15 @@
       <c r="HE97" t="n">
         <v>24</v>
       </c>
+      <c r="HF97" t="n">
+        <v>30</v>
+      </c>
+      <c r="HG97" t="n">
+        <v>28</v>
+      </c>
+      <c r="HH97" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -63366,6 +64239,15 @@
       <c r="HE98" t="n">
         <v>33</v>
       </c>
+      <c r="HF98" t="n">
+        <v>31</v>
+      </c>
+      <c r="HG98" t="n">
+        <v>21</v>
+      </c>
+      <c r="HH98" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -64009,6 +64891,15 @@
       <c r="HE99" t="n">
         <v>32</v>
       </c>
+      <c r="HF99" t="n">
+        <v>33</v>
+      </c>
+      <c r="HG99" t="n">
+        <v>52</v>
+      </c>
+      <c r="HH99" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -64652,6 +65543,15 @@
       <c r="HE100" t="n">
         <v>2</v>
       </c>
+      <c r="HF100" t="n">
+        <v>6</v>
+      </c>
+      <c r="HG100" t="n">
+        <v>5</v>
+      </c>
+      <c r="HH100" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -65295,6 +66195,15 @@
       <c r="HE101" t="n">
         <v>2</v>
       </c>
+      <c r="HF101" t="n">
+        <v>3</v>
+      </c>
+      <c r="HG101" t="n">
+        <v>4</v>
+      </c>
+      <c r="HH101" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -65938,6 +66847,15 @@
       <c r="HE102" t="n">
         <v>50</v>
       </c>
+      <c r="HF102" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="HG102" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="HH102" t="n">
+        <v>66.7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/Fremantle_stats.xlsx
+++ b/Fremantle_stats.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HH102"/>
+  <dimension ref="A1:HI102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1004,6 +1004,9 @@
       <c r="HH1" t="n">
         <v>10235</v>
       </c>
+      <c r="HI1" t="n">
+        <v>10244</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1656,6 +1659,9 @@
       <c r="HH2" t="n">
         <v>2020</v>
       </c>
+      <c r="HI2" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2308,6 +2314,9 @@
       <c r="HH3" t="n">
         <v>8</v>
       </c>
+      <c r="HI3" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2960,6 +2969,9 @@
       <c r="HH4" t="n">
         <v>0</v>
       </c>
+      <c r="HI4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3612,6 +3624,9 @@
       <c r="HH5" t="n">
         <v>1</v>
       </c>
+      <c r="HI5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4264,6 +4279,9 @@
       <c r="HH6" t="n">
         <v>16</v>
       </c>
+      <c r="HI6" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4916,6 +4934,9 @@
       <c r="HH7" t="n">
         <v>48</v>
       </c>
+      <c r="HI7" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5568,6 +5589,9 @@
       <c r="HH8" t="n">
         <v>-32</v>
       </c>
+      <c r="HI8" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6220,6 +6244,9 @@
       <c r="HH9" t="n">
         <v>0</v>
       </c>
+      <c r="HI9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6872,6 +6899,9 @@
       <c r="HH10" t="n">
         <v>7</v>
       </c>
+      <c r="HI10" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7524,6 +7554,9 @@
       <c r="HH11" t="n">
         <v>157</v>
       </c>
+      <c r="HI11" t="n">
+        <v>192</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8176,6 +8209,9 @@
       <c r="HH12" t="n">
         <v>125</v>
       </c>
+      <c r="HI12" t="n">
+        <v>139</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8828,6 +8864,9 @@
       <c r="HH13" t="n">
         <v>282</v>
       </c>
+      <c r="HI13" t="n">
+        <v>331</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9480,6 +9519,9 @@
       <c r="HH14" t="n">
         <v>1.26</v>
       </c>
+      <c r="HI14" t="n">
+        <v>1.38</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10132,6 +10174,9 @@
       <c r="HH15" t="n">
         <v>41</v>
       </c>
+      <c r="HI15" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10784,6 +10829,9 @@
       <c r="HH16" t="n">
         <v>73</v>
       </c>
+      <c r="HI16" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11436,6 +11484,9 @@
       <c r="HH17" t="n">
         <v>43</v>
       </c>
+      <c r="HI17" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12088,6 +12139,9 @@
       <c r="HH18" t="n">
         <v>19</v>
       </c>
+      <c r="HI18" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -12740,6 +12794,9 @@
       <c r="HH19" t="n">
         <v>17</v>
       </c>
+      <c r="HI19" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -13392,6 +13449,9 @@
       <c r="HH20" t="n">
         <v>2</v>
       </c>
+      <c r="HI20" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14044,6 +14104,9 @@
       <c r="HH21" t="n">
         <v>1</v>
       </c>
+      <c r="HI21" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -14696,6 +14759,9 @@
       <c r="HH22" t="n">
         <v>3</v>
       </c>
+      <c r="HI22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -15348,6 +15414,9 @@
       <c r="HH23" t="n">
         <v>1</v>
       </c>
+      <c r="HI23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -16000,6 +16069,9 @@
       <c r="HH24" t="n">
         <v>6</v>
       </c>
+      <c r="HI24" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -16652,6 +16724,9 @@
       <c r="HH25" t="n">
         <v>33.3</v>
       </c>
+      <c r="HI25" t="n">
+        <v>90.90000000000001</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -17304,6 +17379,9 @@
       <c r="HH26" t="n">
         <v>141</v>
       </c>
+      <c r="HI26" t="n">
+        <v>33.1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -17956,6 +18034,9 @@
       <c r="HH27" t="n">
         <v>47</v>
       </c>
+      <c r="HI27" t="n">
+        <v>30.09</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -18608,6 +18689,9 @@
       <c r="HH28" t="n">
         <v>30</v>
       </c>
+      <c r="HI28" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -19260,6 +19344,9 @@
       <c r="HH29" t="n">
         <v>47</v>
       </c>
+      <c r="HI29" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -19912,6 +19999,9 @@
       <c r="HH30" t="n">
         <v>39</v>
       </c>
+      <c r="HI30" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -20564,6 +20654,9 @@
       <c r="HH31" t="n">
         <v>27</v>
       </c>
+      <c r="HI31" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -21216,6 +21309,9 @@
       <c r="HH32" t="n">
         <v>4.5</v>
       </c>
+      <c r="HI32" t="n">
+        <v>3.09</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -21868,6 +21964,9 @@
       <c r="HH33" t="n">
         <v>13.5</v>
       </c>
+      <c r="HI33" t="n">
+        <v>3.4</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -22520,6 +22619,9 @@
       <c r="HH34" t="n">
         <v>18.5</v>
       </c>
+      <c r="HI34" t="n">
+        <v>32.4</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -23172,6 +23274,9 @@
       <c r="HH35" t="n">
         <v>7.4</v>
       </c>
+      <c r="HI35" t="n">
+        <v>29.4</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -23824,6 +23929,9 @@
       <c r="HH36" t="n">
         <v>187.3</v>
       </c>
+      <c r="HI36" t="n">
+        <v>187.3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -24476,6 +24584,9 @@
       <c r="HH37" t="n">
         <v>86.8</v>
       </c>
+      <c r="HI37" t="n">
+        <v>87.90000000000001</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -25128,6 +25239,9 @@
       <c r="HH38" t="n">
         <v>24.74</v>
       </c>
+      <c r="HI38" t="n">
+        <v>24.8</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -25780,6 +25894,9 @@
       <c r="HH39" t="n">
         <v>74.7</v>
       </c>
+      <c r="HI39" t="n">
+        <v>73.8</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -26432,6 +26549,9 @@
       <c r="HH40" t="n">
         <v>10</v>
       </c>
+      <c r="HI40" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -27084,6 +27204,9 @@
       <c r="HH41" t="n">
         <v>7</v>
       </c>
+      <c r="HI41" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -27736,6 +27859,9 @@
       <c r="HH42" t="n">
         <v>3</v>
       </c>
+      <c r="HI42" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -28388,6 +28514,9 @@
       <c r="HH43" t="n">
         <v>2</v>
       </c>
+      <c r="HI43" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -29040,6 +29169,9 @@
       <c r="HH44" t="n">
         <v>135</v>
       </c>
+      <c r="HI44" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -29692,6 +29824,9 @@
       <c r="HH45" t="n">
         <v>126</v>
       </c>
+      <c r="HI45" t="n">
+        <v>183</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -30344,6 +30479,9 @@
       <c r="HH46" t="n">
         <v>164</v>
       </c>
+      <c r="HI46" t="n">
+        <v>216</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -30996,6 +31134,9 @@
       <c r="HH47" t="n">
         <v>58.2</v>
       </c>
+      <c r="HI47" t="n">
+        <v>65.3</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -31648,6 +31789,9 @@
       <c r="HH48" t="n">
         <v>47</v>
       </c>
+      <c r="HI48" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -32300,6 +32444,9 @@
       <c r="HH49" t="n">
         <v>5</v>
       </c>
+      <c r="HI49" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -32952,6 +33099,9 @@
       <c r="HH50" t="n">
         <v>2</v>
       </c>
+      <c r="HI50" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -33604,6 +33754,9 @@
       <c r="HH51" t="n">
         <v>30</v>
       </c>
+      <c r="HI51" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -34256,6 +34409,9 @@
       <c r="HH52" t="n">
         <v>39</v>
       </c>
+      <c r="HI52" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -34908,6 +35064,9 @@
       <c r="HH53" t="n">
         <v>54</v>
       </c>
+      <c r="HI53" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -35560,6 +35719,9 @@
       <c r="HH54" t="n">
         <v>2</v>
       </c>
+      <c r="HI54" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -36212,6 +36374,9 @@
       <c r="HH55" t="n">
         <v>1</v>
       </c>
+      <c r="HI55" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -36864,6 +37029,9 @@
       <c r="HH56" t="n">
         <v>50</v>
       </c>
+      <c r="HI56" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -37516,6 +37684,9 @@
       <c r="HH57" t="n">
         <v>191</v>
       </c>
+      <c r="HI57" t="n">
+        <v>169</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -38168,6 +38339,9 @@
       <c r="HH58" t="n">
         <v>151</v>
       </c>
+      <c r="HI58" t="n">
+        <v>149</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -38820,6 +38994,9 @@
       <c r="HH59" t="n">
         <v>342</v>
       </c>
+      <c r="HI59" t="n">
+        <v>318</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -39472,6 +39649,9 @@
       <c r="HH60" t="n">
         <v>1.26</v>
       </c>
+      <c r="HI60" t="n">
+        <v>1.13</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -40124,6 +40304,9 @@
       <c r="HH61" t="n">
         <v>50</v>
       </c>
+      <c r="HI61" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -40776,6 +40959,9 @@
       <c r="HH62" t="n">
         <v>73</v>
       </c>
+      <c r="HI62" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -41428,6 +41614,9 @@
       <c r="HH63" t="n">
         <v>35</v>
       </c>
+      <c r="HI63" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -42080,6 +42269,9 @@
       <c r="HH64" t="n">
         <v>17</v>
       </c>
+      <c r="HI64" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -42732,6 +42924,9 @@
       <c r="HH65" t="n">
         <v>19</v>
       </c>
+      <c r="HI65" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -43384,6 +43579,9 @@
       <c r="HH66" t="n">
         <v>6</v>
       </c>
+      <c r="HI66" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -44036,6 +44234,9 @@
       <c r="HH67" t="n">
         <v>4</v>
       </c>
+      <c r="HI67" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -44688,6 +44889,9 @@
       <c r="HH68" t="n">
         <v>8</v>
       </c>
+      <c r="HI68" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -45340,6 +45544,9 @@
       <c r="HH69" t="n">
         <v>4</v>
       </c>
+      <c r="HI69" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -45992,6 +46199,9 @@
       <c r="HH70" t="n">
         <v>18</v>
       </c>
+      <c r="HI70" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -46644,6 +46854,9 @@
       <c r="HH71" t="n">
         <v>33.3</v>
       </c>
+      <c r="HI71" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -47296,6 +47509,9 @@
       <c r="HH72" t="n">
         <v>57</v>
       </c>
+      <c r="HI72" t="n">
+        <v>45.43</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -47948,6 +48164,9 @@
       <c r="HH73" t="n">
         <v>19</v>
       </c>
+      <c r="HI73" t="n">
+        <v>22.71</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -48600,6 +48819,9 @@
       <c r="HH74" t="n">
         <v>41</v>
       </c>
+      <c r="HI74" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -49252,6 +49474,9 @@
       <c r="HH75" t="n">
         <v>65</v>
       </c>
+      <c r="HI75" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -49904,6 +50129,9 @@
       <c r="HH76" t="n">
         <v>25</v>
       </c>
+      <c r="HI76" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -50556,6 +50784,9 @@
       <c r="HH77" t="n">
         <v>47</v>
       </c>
+      <c r="HI77" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -51208,6 +51439,9 @@
       <c r="HH78" t="n">
         <v>2.61</v>
       </c>
+      <c r="HI78" t="n">
+        <v>3.07</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -51860,6 +52094,9 @@
       <c r="HH79" t="n">
         <v>7.83</v>
       </c>
+      <c r="HI79" t="n">
+        <v>6.14</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -52512,6 +52749,9 @@
       <c r="HH80" t="n">
         <v>29.8</v>
       </c>
+      <c r="HI80" t="n">
+        <v>23.3</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -53164,6 +53404,9 @@
       <c r="HH81" t="n">
         <v>12.8</v>
       </c>
+      <c r="HI81" t="n">
+        <v>16.3</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -53816,6 +54059,9 @@
       <c r="HH82" t="n">
         <v>188.8</v>
       </c>
+      <c r="HI82" t="n">
+        <v>187.7</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -54468,6 +54714,9 @@
       <c r="HH83" t="n">
         <v>88.5</v>
       </c>
+      <c r="HI83" t="n">
+        <v>86.90000000000001</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -55120,6 +55369,9 @@
       <c r="HH84" t="n">
         <v>26.24</v>
       </c>
+      <c r="HI84" t="n">
+        <v>25.74</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -55772,6 +56024,9 @@
       <c r="HH85" t="n">
         <v>110.1</v>
       </c>
+      <c r="HI85" t="n">
+        <v>93.8</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -56424,6 +56679,9 @@
       <c r="HH86" t="n">
         <v>7</v>
       </c>
+      <c r="HI86" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -57076,6 +57334,9 @@
       <c r="HH87" t="n">
         <v>6</v>
       </c>
+      <c r="HI87" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -57728,6 +57989,9 @@
       <c r="HH88" t="n">
         <v>1</v>
       </c>
+      <c r="HI88" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -58380,6 +58644,9 @@
       <c r="HH89" t="n">
         <v>8</v>
       </c>
+      <c r="HI89" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -59032,6 +59299,9 @@
       <c r="HH90" t="n">
         <v>166</v>
       </c>
+      <c r="HI90" t="n">
+        <v>115</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -59684,6 +59954,9 @@
       <c r="HH91" t="n">
         <v>168</v>
       </c>
+      <c r="HI91" t="n">
+        <v>198</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -60336,6 +60609,9 @@
       <c r="HH92" t="n">
         <v>201</v>
       </c>
+      <c r="HI92" t="n">
+        <v>220</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -60988,6 +61264,9 @@
       <c r="HH93" t="n">
         <v>58.8</v>
       </c>
+      <c r="HI93" t="n">
+        <v>69.2</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -61640,6 +61919,9 @@
       <c r="HH94" t="n">
         <v>65</v>
       </c>
+      <c r="HI94" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -62292,6 +62574,9 @@
       <c r="HH95" t="n">
         <v>6</v>
       </c>
+      <c r="HI95" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -62944,6 +63229,9 @@
       <c r="HH96" t="n">
         <v>9</v>
       </c>
+      <c r="HI96" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -63596,6 +63884,9 @@
       <c r="HH97" t="n">
         <v>41</v>
       </c>
+      <c r="HI97" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -64248,6 +64539,9 @@
       <c r="HH98" t="n">
         <v>25</v>
       </c>
+      <c r="HI98" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -64900,6 +65194,9 @@
       <c r="HH99" t="n">
         <v>63</v>
       </c>
+      <c r="HI99" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -65552,6 +65849,9 @@
       <c r="HH100" t="n">
         <v>1</v>
       </c>
+      <c r="HI100" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -66204,6 +66504,9 @@
       <c r="HH101" t="n">
         <v>4</v>
       </c>
+      <c r="HI101" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -66856,8 +67159,11 @@
       <c r="HH102" t="n">
         <v>66.7</v>
       </c>
+      <c r="HI102" t="n">
+        <v>85.7</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Fremantle_stats.xlsx
+++ b/Fremantle_stats.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HI102"/>
+  <dimension ref="A1:HK102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1007,6 +1007,12 @@
       <c r="HI1" t="n">
         <v>10244</v>
       </c>
+      <c r="HJ1" t="n">
+        <v>10257</v>
+      </c>
+      <c r="HK1" t="n">
+        <v>10264</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1662,6 +1668,12 @@
       <c r="HI2" t="n">
         <v>2020</v>
       </c>
+      <c r="HJ2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HK2" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2317,6 +2329,12 @@
       <c r="HI3" t="n">
         <v>9</v>
       </c>
+      <c r="HJ3" t="n">
+        <v>11</v>
+      </c>
+      <c r="HK3" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2972,6 +2990,12 @@
       <c r="HI4" t="n">
         <v>0</v>
       </c>
+      <c r="HJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3627,6 +3651,12 @@
       <c r="HI5" t="n">
         <v>0</v>
       </c>
+      <c r="HJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4282,6 +4312,12 @@
       <c r="HI6" t="n">
         <v>61</v>
       </c>
+      <c r="HJ6" t="n">
+        <v>48</v>
+      </c>
+      <c r="HK6" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4937,6 +4973,12 @@
       <c r="HI7" t="n">
         <v>49</v>
       </c>
+      <c r="HJ7" t="n">
+        <v>32</v>
+      </c>
+      <c r="HK7" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5592,6 +5634,12 @@
       <c r="HI8" t="n">
         <v>12</v>
       </c>
+      <c r="HJ8" t="n">
+        <v>16</v>
+      </c>
+      <c r="HK8" t="n">
+        <v>-4</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6247,6 +6295,12 @@
       <c r="HI9" t="n">
         <v>1</v>
       </c>
+      <c r="HJ9" t="n">
+        <v>1</v>
+      </c>
+      <c r="HK9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6902,6 +6956,12 @@
       <c r="HI10" t="n">
         <v>4</v>
       </c>
+      <c r="HJ10" t="n">
+        <v>10</v>
+      </c>
+      <c r="HK10" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7557,6 +7617,12 @@
       <c r="HI11" t="n">
         <v>192</v>
       </c>
+      <c r="HJ11" t="n">
+        <v>204</v>
+      </c>
+      <c r="HK11" t="n">
+        <v>168</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8212,6 +8278,12 @@
       <c r="HI12" t="n">
         <v>139</v>
       </c>
+      <c r="HJ12" t="n">
+        <v>176</v>
+      </c>
+      <c r="HK12" t="n">
+        <v>111</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8867,6 +8939,12 @@
       <c r="HI13" t="n">
         <v>331</v>
       </c>
+      <c r="HJ13" t="n">
+        <v>380</v>
+      </c>
+      <c r="HK13" t="n">
+        <v>279</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9522,6 +9600,12 @@
       <c r="HI14" t="n">
         <v>1.38</v>
       </c>
+      <c r="HJ14" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="HK14" t="n">
+        <v>1.51</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10177,6 +10261,12 @@
       <c r="HI15" t="n">
         <v>65</v>
       </c>
+      <c r="HJ15" t="n">
+        <v>84</v>
+      </c>
+      <c r="HK15" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10832,6 +10922,12 @@
       <c r="HI16" t="n">
         <v>52</v>
       </c>
+      <c r="HJ16" t="n">
+        <v>56</v>
+      </c>
+      <c r="HK16" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11487,6 +11583,12 @@
       <c r="HI17" t="n">
         <v>28</v>
       </c>
+      <c r="HJ17" t="n">
+        <v>31</v>
+      </c>
+      <c r="HK17" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12142,6 +12244,12 @@
       <c r="HI18" t="n">
         <v>17</v>
       </c>
+      <c r="HJ18" t="n">
+        <v>15</v>
+      </c>
+      <c r="HK18" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -12797,6 +12905,12 @@
       <c r="HI19" t="n">
         <v>9</v>
       </c>
+      <c r="HJ19" t="n">
+        <v>14</v>
+      </c>
+      <c r="HK19" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -13452,6 +13566,12 @@
       <c r="HI20" t="n">
         <v>10</v>
       </c>
+      <c r="HJ20" t="n">
+        <v>7</v>
+      </c>
+      <c r="HK20" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14107,6 +14227,12 @@
       <c r="HI21" t="n">
         <v>8</v>
       </c>
+      <c r="HJ21" t="n">
+        <v>6</v>
+      </c>
+      <c r="HK21" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -14762,6 +14888,12 @@
       <c r="HI22" t="n">
         <v>1</v>
       </c>
+      <c r="HJ22" t="n">
+        <v>5</v>
+      </c>
+      <c r="HK22" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -15417,6 +15549,12 @@
       <c r="HI23" t="n">
         <v>0</v>
       </c>
+      <c r="HJ23" t="n">
+        <v>1</v>
+      </c>
+      <c r="HK23" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -16072,6 +16210,12 @@
       <c r="HI24" t="n">
         <v>11</v>
       </c>
+      <c r="HJ24" t="n">
+        <v>13</v>
+      </c>
+      <c r="HK24" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -16727,6 +16871,12 @@
       <c r="HI25" t="n">
         <v>90.90000000000001</v>
       </c>
+      <c r="HJ25" t="n">
+        <v>53.8</v>
+      </c>
+      <c r="HK25" t="n">
+        <v>45.5</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -17382,6 +17532,12 @@
       <c r="HI26" t="n">
         <v>33.1</v>
       </c>
+      <c r="HJ26" t="n">
+        <v>54.29</v>
+      </c>
+      <c r="HK26" t="n">
+        <v>55.8</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -18037,6 +18193,12 @@
       <c r="HI27" t="n">
         <v>30.09</v>
       </c>
+      <c r="HJ27" t="n">
+        <v>29.23</v>
+      </c>
+      <c r="HK27" t="n">
+        <v>25.36</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -18692,6 +18854,12 @@
       <c r="HI28" t="n">
         <v>45</v>
       </c>
+      <c r="HJ28" t="n">
+        <v>25</v>
+      </c>
+      <c r="HK28" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -19347,6 +19515,12 @@
       <c r="HI29" t="n">
         <v>51</v>
       </c>
+      <c r="HJ29" t="n">
+        <v>45</v>
+      </c>
+      <c r="HK29" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -20002,6 +20176,12 @@
       <c r="HI30" t="n">
         <v>36</v>
       </c>
+      <c r="HJ30" t="n">
+        <v>27</v>
+      </c>
+      <c r="HK30" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -20657,6 +20837,12 @@
       <c r="HI31" t="n">
         <v>34</v>
       </c>
+      <c r="HJ31" t="n">
+        <v>37</v>
+      </c>
+      <c r="HK31" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -21312,6 +21498,12 @@
       <c r="HI32" t="n">
         <v>3.09</v>
       </c>
+      <c r="HJ32" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="HK32" t="n">
+        <v>3.82</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -21967,6 +22159,12 @@
       <c r="HI33" t="n">
         <v>3.4</v>
       </c>
+      <c r="HJ33" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="HK33" t="n">
+        <v>8.4</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -22622,6 +22820,12 @@
       <c r="HI34" t="n">
         <v>32.4</v>
       </c>
+      <c r="HJ34" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="HK34" t="n">
+        <v>16.7</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -23277,6 +23481,12 @@
       <c r="HI35" t="n">
         <v>29.4</v>
       </c>
+      <c r="HJ35" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="HK35" t="n">
+        <v>11.9</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -23932,6 +24142,12 @@
       <c r="HI36" t="n">
         <v>187.3</v>
       </c>
+      <c r="HJ36" t="n">
+        <v>187.3</v>
+      </c>
+      <c r="HK36" t="n">
+        <v>187.5</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -24587,6 +24803,12 @@
       <c r="HI37" t="n">
         <v>87.90000000000001</v>
       </c>
+      <c r="HJ37" t="n">
+        <v>88</v>
+      </c>
+      <c r="HK37" t="n">
+        <v>88</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -25242,6 +25464,12 @@
       <c r="HI38" t="n">
         <v>24.8</v>
       </c>
+      <c r="HJ38" t="n">
+        <v>25</v>
+      </c>
+      <c r="HK38" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -25897,6 +26125,12 @@
       <c r="HI39" t="n">
         <v>73.8</v>
       </c>
+      <c r="HJ39" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="HK39" t="n">
+        <v>85.2</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -26552,6 +26786,12 @@
       <c r="HI40" t="n">
         <v>10</v>
       </c>
+      <c r="HJ40" t="n">
+        <v>9</v>
+      </c>
+      <c r="HK40" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -27207,6 +27447,12 @@
       <c r="HI41" t="n">
         <v>6</v>
       </c>
+      <c r="HJ41" t="n">
+        <v>7</v>
+      </c>
+      <c r="HK41" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -27862,6 +28108,12 @@
       <c r="HI42" t="n">
         <v>4</v>
       </c>
+      <c r="HJ42" t="n">
+        <v>3</v>
+      </c>
+      <c r="HK42" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -28517,6 +28769,12 @@
       <c r="HI43" t="n">
         <v>2</v>
       </c>
+      <c r="HJ43" t="n">
+        <v>3</v>
+      </c>
+      <c r="HK43" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -29172,6 +29430,12 @@
       <c r="HI44" t="n">
         <v>151</v>
       </c>
+      <c r="HJ44" t="n">
+        <v>130</v>
+      </c>
+      <c r="HK44" t="n">
+        <v>137</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -29827,6 +30091,12 @@
       <c r="HI45" t="n">
         <v>183</v>
       </c>
+      <c r="HJ45" t="n">
+        <v>253</v>
+      </c>
+      <c r="HK45" t="n">
+        <v>141</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -30482,6 +30752,12 @@
       <c r="HI46" t="n">
         <v>216</v>
       </c>
+      <c r="HJ46" t="n">
+        <v>295</v>
+      </c>
+      <c r="HK46" t="n">
+        <v>180</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -31137,6 +31413,12 @@
       <c r="HI47" t="n">
         <v>65.3</v>
       </c>
+      <c r="HJ47" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="HK47" t="n">
+        <v>64.5</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -31792,6 +32074,12 @@
       <c r="HI48" t="n">
         <v>51</v>
       </c>
+      <c r="HJ48" t="n">
+        <v>45</v>
+      </c>
+      <c r="HK48" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -32447,6 +32735,12 @@
       <c r="HI49" t="n">
         <v>8</v>
       </c>
+      <c r="HJ49" t="n">
+        <v>9</v>
+      </c>
+      <c r="HK49" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -33102,6 +33396,12 @@
       <c r="HI50" t="n">
         <v>6</v>
       </c>
+      <c r="HJ50" t="n">
+        <v>12</v>
+      </c>
+      <c r="HK50" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -33757,6 +34057,12 @@
       <c r="HI51" t="n">
         <v>45</v>
       </c>
+      <c r="HJ51" t="n">
+        <v>25</v>
+      </c>
+      <c r="HK51" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -34412,6 +34718,12 @@
       <c r="HI52" t="n">
         <v>36</v>
       </c>
+      <c r="HJ52" t="n">
+        <v>27</v>
+      </c>
+      <c r="HK52" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -35067,6 +35379,12 @@
       <c r="HI53" t="n">
         <v>41</v>
       </c>
+      <c r="HJ53" t="n">
+        <v>49</v>
+      </c>
+      <c r="HK53" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -35722,6 +36040,12 @@
       <c r="HI54" t="n">
         <v>2</v>
       </c>
+      <c r="HJ54" t="n">
+        <v>4</v>
+      </c>
+      <c r="HK54" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -36377,6 +36701,12 @@
       <c r="HI55" t="n">
         <v>8</v>
       </c>
+      <c r="HJ55" t="n">
+        <v>6</v>
+      </c>
+      <c r="HK55" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -37032,6 +37362,12 @@
       <c r="HI56" t="n">
         <v>80</v>
       </c>
+      <c r="HJ56" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="HK56" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -37687,6 +38023,12 @@
       <c r="HI57" t="n">
         <v>169</v>
       </c>
+      <c r="HJ57" t="n">
+        <v>161</v>
+      </c>
+      <c r="HK57" t="n">
+        <v>190</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -38342,6 +38684,12 @@
       <c r="HI58" t="n">
         <v>149</v>
       </c>
+      <c r="HJ58" t="n">
+        <v>123</v>
+      </c>
+      <c r="HK58" t="n">
+        <v>101</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -38997,6 +39345,12 @@
       <c r="HI59" t="n">
         <v>318</v>
       </c>
+      <c r="HJ59" t="n">
+        <v>284</v>
+      </c>
+      <c r="HK59" t="n">
+        <v>291</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -39652,6 +40006,12 @@
       <c r="HI60" t="n">
         <v>1.13</v>
       </c>
+      <c r="HJ60" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="HK60" t="n">
+        <v>1.88</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -40307,6 +40667,12 @@
       <c r="HI61" t="n">
         <v>65</v>
       </c>
+      <c r="HJ61" t="n">
+        <v>64</v>
+      </c>
+      <c r="HK61" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -40962,6 +41328,12 @@
       <c r="HI62" t="n">
         <v>47</v>
       </c>
+      <c r="HJ62" t="n">
+        <v>41</v>
+      </c>
+      <c r="HK62" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -41617,6 +41989,12 @@
       <c r="HI63" t="n">
         <v>51</v>
       </c>
+      <c r="HJ63" t="n">
+        <v>25</v>
+      </c>
+      <c r="HK63" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -42272,6 +42650,12 @@
       <c r="HI64" t="n">
         <v>9</v>
       </c>
+      <c r="HJ64" t="n">
+        <v>14</v>
+      </c>
+      <c r="HK64" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -42927,6 +43311,12 @@
       <c r="HI65" t="n">
         <v>17</v>
       </c>
+      <c r="HJ65" t="n">
+        <v>15</v>
+      </c>
+      <c r="HK65" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -43582,6 +43972,12 @@
       <c r="HI66" t="n">
         <v>7</v>
       </c>
+      <c r="HJ66" t="n">
+        <v>4</v>
+      </c>
+      <c r="HK66" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -44237,6 +44633,12 @@
       <c r="HI67" t="n">
         <v>6</v>
       </c>
+      <c r="HJ67" t="n">
+        <v>3</v>
+      </c>
+      <c r="HK67" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -44892,6 +45294,12 @@
       <c r="HI68" t="n">
         <v>3</v>
       </c>
+      <c r="HJ68" t="n">
+        <v>5</v>
+      </c>
+      <c r="HK68" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -45547,6 +45955,12 @@
       <c r="HI69" t="n">
         <v>4</v>
       </c>
+      <c r="HJ69" t="n">
+        <v>3</v>
+      </c>
+      <c r="HK69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -46202,6 +46616,12 @@
       <c r="HI70" t="n">
         <v>14</v>
       </c>
+      <c r="HJ70" t="n">
+        <v>12</v>
+      </c>
+      <c r="HK70" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -46857,6 +47277,12 @@
       <c r="HI71" t="n">
         <v>50</v>
       </c>
+      <c r="HJ71" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="HK71" t="n">
+        <v>33.3</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -47512,6 +47938,12 @@
       <c r="HI72" t="n">
         <v>45.43</v>
       </c>
+      <c r="HJ72" t="n">
+        <v>71</v>
+      </c>
+      <c r="HK72" t="n">
+        <v>58.2</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -48167,6 +48599,12 @@
       <c r="HI73" t="n">
         <v>22.71</v>
       </c>
+      <c r="HJ73" t="n">
+        <v>23.67</v>
+      </c>
+      <c r="HK73" t="n">
+        <v>19.4</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -48822,6 +49260,12 @@
       <c r="HI74" t="n">
         <v>30</v>
       </c>
+      <c r="HJ74" t="n">
+        <v>27</v>
+      </c>
+      <c r="HK74" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -49477,6 +49921,12 @@
       <c r="HI75" t="n">
         <v>50</v>
       </c>
+      <c r="HJ75" t="n">
+        <v>47</v>
+      </c>
+      <c r="HK75" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -50132,6 +50582,12 @@
       <c r="HI76" t="n">
         <v>23</v>
       </c>
+      <c r="HJ76" t="n">
+        <v>29</v>
+      </c>
+      <c r="HK76" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -50787,6 +51243,12 @@
       <c r="HI77" t="n">
         <v>43</v>
       </c>
+      <c r="HJ77" t="n">
+        <v>33</v>
+      </c>
+      <c r="HK77" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -51442,6 +51904,12 @@
       <c r="HI78" t="n">
         <v>3.07</v>
       </c>
+      <c r="HJ78" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="HK78" t="n">
+        <v>2.73</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -52097,6 +52565,12 @@
       <c r="HI79" t="n">
         <v>6.14</v>
       </c>
+      <c r="HJ79" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="HK79" t="n">
+        <v>8.199999999999999</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -52752,6 +53226,12 @@
       <c r="HI80" t="n">
         <v>23.3</v>
       </c>
+      <c r="HJ80" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="HK80" t="n">
+        <v>34.1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -53407,6 +53887,12 @@
       <c r="HI81" t="n">
         <v>16.3</v>
       </c>
+      <c r="HJ81" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="HK81" t="n">
+        <v>12.2</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -54062,6 +54548,12 @@
       <c r="HI82" t="n">
         <v>187.7</v>
       </c>
+      <c r="HJ82" t="n">
+        <v>188</v>
+      </c>
+      <c r="HK82" t="n">
+        <v>188</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -54717,6 +55209,12 @@
       <c r="HI83" t="n">
         <v>86.90000000000001</v>
       </c>
+      <c r="HJ83" t="n">
+        <v>86.5</v>
+      </c>
+      <c r="HK83" t="n">
+        <v>85.3</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -55372,6 +55870,12 @@
       <c r="HI84" t="n">
         <v>25.74</v>
       </c>
+      <c r="HJ84" t="n">
+        <v>26.66</v>
+      </c>
+      <c r="HK84" t="n">
+        <v>25.58</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -56027,6 +56531,12 @@
       <c r="HI85" t="n">
         <v>93.8</v>
       </c>
+      <c r="HJ85" t="n">
+        <v>124.2</v>
+      </c>
+      <c r="HK85" t="n">
+        <v>105.1</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -56682,6 +57192,12 @@
       <c r="HI86" t="n">
         <v>9</v>
       </c>
+      <c r="HJ86" t="n">
+        <v>5</v>
+      </c>
+      <c r="HK86" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -57337,6 +57853,12 @@
       <c r="HI87" t="n">
         <v>3</v>
       </c>
+      <c r="HJ87" t="n">
+        <v>4</v>
+      </c>
+      <c r="HK87" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -57992,6 +58514,12 @@
       <c r="HI88" t="n">
         <v>6</v>
       </c>
+      <c r="HJ88" t="n">
+        <v>4</v>
+      </c>
+      <c r="HK88" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -58647,6 +59175,12 @@
       <c r="HI89" t="n">
         <v>4</v>
       </c>
+      <c r="HJ89" t="n">
+        <v>9</v>
+      </c>
+      <c r="HK89" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -59302,6 +59836,12 @@
       <c r="HI90" t="n">
         <v>115</v>
       </c>
+      <c r="HJ90" t="n">
+        <v>115</v>
+      </c>
+      <c r="HK90" t="n">
+        <v>155</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -59957,6 +60497,12 @@
       <c r="HI91" t="n">
         <v>198</v>
       </c>
+      <c r="HJ91" t="n">
+        <v>171</v>
+      </c>
+      <c r="HK91" t="n">
+        <v>125</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -60612,6 +61158,12 @@
       <c r="HI92" t="n">
         <v>220</v>
       </c>
+      <c r="HJ92" t="n">
+        <v>195</v>
+      </c>
+      <c r="HK92" t="n">
+        <v>152</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -61267,6 +61819,12 @@
       <c r="HI93" t="n">
         <v>69.2</v>
       </c>
+      <c r="HJ93" t="n">
+        <v>68.7</v>
+      </c>
+      <c r="HK93" t="n">
+        <v>52.2</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -61922,6 +62480,12 @@
       <c r="HI94" t="n">
         <v>50</v>
       </c>
+      <c r="HJ94" t="n">
+        <v>47</v>
+      </c>
+      <c r="HK94" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -62577,6 +63141,12 @@
       <c r="HI95" t="n">
         <v>9</v>
       </c>
+      <c r="HJ95" t="n">
+        <v>9</v>
+      </c>
+      <c r="HK95" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -63232,6 +63802,12 @@
       <c r="HI96" t="n">
         <v>5</v>
       </c>
+      <c r="HJ96" t="n">
+        <v>6</v>
+      </c>
+      <c r="HK96" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -63887,6 +64463,12 @@
       <c r="HI97" t="n">
         <v>30</v>
       </c>
+      <c r="HJ97" t="n">
+        <v>27</v>
+      </c>
+      <c r="HK97" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -64542,6 +65124,12 @@
       <c r="HI98" t="n">
         <v>23</v>
       </c>
+      <c r="HJ98" t="n">
+        <v>29</v>
+      </c>
+      <c r="HK98" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -65197,6 +65785,12 @@
       <c r="HI99" t="n">
         <v>48</v>
       </c>
+      <c r="HJ99" t="n">
+        <v>59</v>
+      </c>
+      <c r="HK99" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -65852,6 +66446,12 @@
       <c r="HI100" t="n">
         <v>1</v>
       </c>
+      <c r="HJ100" t="n">
+        <v>1</v>
+      </c>
+      <c r="HK100" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -66507,6 +67107,12 @@
       <c r="HI101" t="n">
         <v>6</v>
       </c>
+      <c r="HJ101" t="n">
+        <v>3</v>
+      </c>
+      <c r="HK101" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -67162,8 +67768,14 @@
       <c r="HI102" t="n">
         <v>85.7</v>
       </c>
+      <c r="HJ102" t="n">
+        <v>75</v>
+      </c>
+      <c r="HK102" t="n">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Fremantle_stats.xlsx
+++ b/Fremantle_stats.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HK102"/>
+  <dimension ref="A1:HQ102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1013,6 +1013,24 @@
       <c r="HK1" t="n">
         <v>10264</v>
       </c>
+      <c r="HL1" t="n">
+        <v>10273</v>
+      </c>
+      <c r="HM1" t="n">
+        <v>10282</v>
+      </c>
+      <c r="HN1" t="n">
+        <v>10288</v>
+      </c>
+      <c r="HO1" t="n">
+        <v>10296</v>
+      </c>
+      <c r="HP1" t="n">
+        <v>10302</v>
+      </c>
+      <c r="HQ1" t="n">
+        <v>10316</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1674,6 +1692,24 @@
       <c r="HK2" t="n">
         <v>2020</v>
       </c>
+      <c r="HL2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HM2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HN2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HO2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HP2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HQ2" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2335,6 +2371,24 @@
       <c r="HK3" t="n">
         <v>12</v>
       </c>
+      <c r="HL3" t="n">
+        <v>13</v>
+      </c>
+      <c r="HM3" t="n">
+        <v>14</v>
+      </c>
+      <c r="HN3" t="n">
+        <v>15</v>
+      </c>
+      <c r="HO3" t="n">
+        <v>16</v>
+      </c>
+      <c r="HP3" t="n">
+        <v>17</v>
+      </c>
+      <c r="HQ3" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2996,6 +3050,24 @@
       <c r="HK4" t="n">
         <v>0</v>
       </c>
+      <c r="HL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN4" t="n">
+        <v>1</v>
+      </c>
+      <c r="HO4" t="n">
+        <v>1</v>
+      </c>
+      <c r="HP4" t="n">
+        <v>1</v>
+      </c>
+      <c r="HQ4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3657,6 +3729,24 @@
       <c r="HK5" t="n">
         <v>1</v>
       </c>
+      <c r="HL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM5" t="n">
+        <v>1</v>
+      </c>
+      <c r="HN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO5" t="n">
+        <v>1</v>
+      </c>
+      <c r="HP5" t="n">
+        <v>1</v>
+      </c>
+      <c r="HQ5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4318,6 +4408,24 @@
       <c r="HK6" t="n">
         <v>36</v>
       </c>
+      <c r="HL6" t="n">
+        <v>50</v>
+      </c>
+      <c r="HM6" t="n">
+        <v>53</v>
+      </c>
+      <c r="HN6" t="n">
+        <v>29</v>
+      </c>
+      <c r="HO6" t="n">
+        <v>47</v>
+      </c>
+      <c r="HP6" t="n">
+        <v>99</v>
+      </c>
+      <c r="HQ6" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4979,6 +5087,24 @@
       <c r="HK7" t="n">
         <v>40</v>
       </c>
+      <c r="HL7" t="n">
+        <v>19</v>
+      </c>
+      <c r="HM7" t="n">
+        <v>91</v>
+      </c>
+      <c r="HN7" t="n">
+        <v>56</v>
+      </c>
+      <c r="HO7" t="n">
+        <v>33</v>
+      </c>
+      <c r="HP7" t="n">
+        <v>35</v>
+      </c>
+      <c r="HQ7" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5640,6 +5766,24 @@
       <c r="HK8" t="n">
         <v>-4</v>
       </c>
+      <c r="HL8" t="n">
+        <v>31</v>
+      </c>
+      <c r="HM8" t="n">
+        <v>-38</v>
+      </c>
+      <c r="HN8" t="n">
+        <v>-27</v>
+      </c>
+      <c r="HO8" t="n">
+        <v>14</v>
+      </c>
+      <c r="HP8" t="n">
+        <v>64</v>
+      </c>
+      <c r="HQ8" t="n">
+        <v>-30</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6301,6 +6445,24 @@
       <c r="HK9" t="n">
         <v>0</v>
       </c>
+      <c r="HL9" t="n">
+        <v>1</v>
+      </c>
+      <c r="HM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO9" t="n">
+        <v>1</v>
+      </c>
+      <c r="HP9" t="n">
+        <v>1</v>
+      </c>
+      <c r="HQ9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6962,6 +7124,24 @@
       <c r="HK10" t="n">
         <v>3</v>
       </c>
+      <c r="HL10" t="n">
+        <v>16</v>
+      </c>
+      <c r="HM10" t="n">
+        <v>9</v>
+      </c>
+      <c r="HN10" t="n">
+        <v>14</v>
+      </c>
+      <c r="HO10" t="n">
+        <v>11</v>
+      </c>
+      <c r="HP10" t="n">
+        <v>12</v>
+      </c>
+      <c r="HQ10" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7623,6 +7803,24 @@
       <c r="HK11" t="n">
         <v>168</v>
       </c>
+      <c r="HL11" t="n">
+        <v>179</v>
+      </c>
+      <c r="HM11" t="n">
+        <v>144</v>
+      </c>
+      <c r="HN11" t="n">
+        <v>177</v>
+      </c>
+      <c r="HO11" t="n">
+        <v>190</v>
+      </c>
+      <c r="HP11" t="n">
+        <v>197</v>
+      </c>
+      <c r="HQ11" t="n">
+        <v>172</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8284,6 +8482,24 @@
       <c r="HK12" t="n">
         <v>111</v>
       </c>
+      <c r="HL12" t="n">
+        <v>146</v>
+      </c>
+      <c r="HM12" t="n">
+        <v>130</v>
+      </c>
+      <c r="HN12" t="n">
+        <v>112</v>
+      </c>
+      <c r="HO12" t="n">
+        <v>151</v>
+      </c>
+      <c r="HP12" t="n">
+        <v>137</v>
+      </c>
+      <c r="HQ12" t="n">
+        <v>129</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8945,6 +9161,24 @@
       <c r="HK13" t="n">
         <v>279</v>
       </c>
+      <c r="HL13" t="n">
+        <v>325</v>
+      </c>
+      <c r="HM13" t="n">
+        <v>274</v>
+      </c>
+      <c r="HN13" t="n">
+        <v>289</v>
+      </c>
+      <c r="HO13" t="n">
+        <v>341</v>
+      </c>
+      <c r="HP13" t="n">
+        <v>334</v>
+      </c>
+      <c r="HQ13" t="n">
+        <v>301</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9606,6 +9840,24 @@
       <c r="HK14" t="n">
         <v>1.51</v>
       </c>
+      <c r="HL14" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="HM14" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="HN14" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="HO14" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="HP14" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="HQ14" t="n">
+        <v>1.33</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10267,6 +10519,24 @@
       <c r="HK15" t="n">
         <v>49</v>
       </c>
+      <c r="HL15" t="n">
+        <v>71</v>
+      </c>
+      <c r="HM15" t="n">
+        <v>53</v>
+      </c>
+      <c r="HN15" t="n">
+        <v>76</v>
+      </c>
+      <c r="HO15" t="n">
+        <v>74</v>
+      </c>
+      <c r="HP15" t="n">
+        <v>94</v>
+      </c>
+      <c r="HQ15" t="n">
+        <v>79</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10928,6 +11198,24 @@
       <c r="HK16" t="n">
         <v>66</v>
       </c>
+      <c r="HL16" t="n">
+        <v>44</v>
+      </c>
+      <c r="HM16" t="n">
+        <v>55</v>
+      </c>
+      <c r="HN16" t="n">
+        <v>44</v>
+      </c>
+      <c r="HO16" t="n">
+        <v>65</v>
+      </c>
+      <c r="HP16" t="n">
+        <v>42</v>
+      </c>
+      <c r="HQ16" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11589,6 +11877,24 @@
       <c r="HK17" t="n">
         <v>43</v>
       </c>
+      <c r="HL17" t="n">
+        <v>28</v>
+      </c>
+      <c r="HM17" t="n">
+        <v>34</v>
+      </c>
+      <c r="HN17" t="n">
+        <v>26</v>
+      </c>
+      <c r="HO17" t="n">
+        <v>23</v>
+      </c>
+      <c r="HP17" t="n">
+        <v>26</v>
+      </c>
+      <c r="HQ17" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12250,6 +12556,24 @@
       <c r="HK18" t="n">
         <v>14</v>
       </c>
+      <c r="HL18" t="n">
+        <v>13</v>
+      </c>
+      <c r="HM18" t="n">
+        <v>20</v>
+      </c>
+      <c r="HN18" t="n">
+        <v>18</v>
+      </c>
+      <c r="HO18" t="n">
+        <v>18</v>
+      </c>
+      <c r="HP18" t="n">
+        <v>17</v>
+      </c>
+      <c r="HQ18" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -12911,6 +13235,24 @@
       <c r="HK19" t="n">
         <v>16</v>
       </c>
+      <c r="HL19" t="n">
+        <v>13</v>
+      </c>
+      <c r="HM19" t="n">
+        <v>17</v>
+      </c>
+      <c r="HN19" t="n">
+        <v>13</v>
+      </c>
+      <c r="HO19" t="n">
+        <v>13</v>
+      </c>
+      <c r="HP19" t="n">
+        <v>12</v>
+      </c>
+      <c r="HQ19" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -13572,6 +13914,24 @@
       <c r="HK20" t="n">
         <v>5</v>
       </c>
+      <c r="HL20" t="n">
+        <v>7</v>
+      </c>
+      <c r="HM20" t="n">
+        <v>8</v>
+      </c>
+      <c r="HN20" t="n">
+        <v>4</v>
+      </c>
+      <c r="HO20" t="n">
+        <v>6</v>
+      </c>
+      <c r="HP20" t="n">
+        <v>15</v>
+      </c>
+      <c r="HQ20" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14233,6 +14593,24 @@
       <c r="HK21" t="n">
         <v>2</v>
       </c>
+      <c r="HL21" t="n">
+        <v>5</v>
+      </c>
+      <c r="HM21" t="n">
+        <v>4</v>
+      </c>
+      <c r="HN21" t="n">
+        <v>3</v>
+      </c>
+      <c r="HO21" t="n">
+        <v>2</v>
+      </c>
+      <c r="HP21" t="n">
+        <v>10</v>
+      </c>
+      <c r="HQ21" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -14894,6 +15272,24 @@
       <c r="HK22" t="n">
         <v>2</v>
       </c>
+      <c r="HL22" t="n">
+        <v>3</v>
+      </c>
+      <c r="HM22" t="n">
+        <v>4</v>
+      </c>
+      <c r="HN22" t="n">
+        <v>5</v>
+      </c>
+      <c r="HO22" t="n">
+        <v>10</v>
+      </c>
+      <c r="HP22" t="n">
+        <v>7</v>
+      </c>
+      <c r="HQ22" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -15555,6 +15951,24 @@
       <c r="HK23" t="n">
         <v>4</v>
       </c>
+      <c r="HL23" t="n">
+        <v>5</v>
+      </c>
+      <c r="HM23" t="n">
+        <v>1</v>
+      </c>
+      <c r="HN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO23" t="n">
+        <v>1</v>
+      </c>
+      <c r="HP23" t="n">
+        <v>2</v>
+      </c>
+      <c r="HQ23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -16216,6 +16630,24 @@
       <c r="HK24" t="n">
         <v>11</v>
       </c>
+      <c r="HL24" t="n">
+        <v>15</v>
+      </c>
+      <c r="HM24" t="n">
+        <v>13</v>
+      </c>
+      <c r="HN24" t="n">
+        <v>9</v>
+      </c>
+      <c r="HO24" t="n">
+        <v>17</v>
+      </c>
+      <c r="HP24" t="n">
+        <v>24</v>
+      </c>
+      <c r="HQ24" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -16877,6 +17309,24 @@
       <c r="HK25" t="n">
         <v>45.5</v>
       </c>
+      <c r="HL25" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="HM25" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="HN25" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="HO25" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="HP25" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="HQ25" t="n">
+        <v>42.9</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -17538,6 +17988,24 @@
       <c r="HK26" t="n">
         <v>55.8</v>
       </c>
+      <c r="HL26" t="n">
+        <v>46.43</v>
+      </c>
+      <c r="HM26" t="n">
+        <v>34.25</v>
+      </c>
+      <c r="HN26" t="n">
+        <v>72.25</v>
+      </c>
+      <c r="HO26" t="n">
+        <v>56.83</v>
+      </c>
+      <c r="HP26" t="n">
+        <v>22.27</v>
+      </c>
+      <c r="HQ26" t="n">
+        <v>50.17</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -18199,6 +18667,24 @@
       <c r="HK27" t="n">
         <v>25.36</v>
       </c>
+      <c r="HL27" t="n">
+        <v>21.67</v>
+      </c>
+      <c r="HM27" t="n">
+        <v>21.08</v>
+      </c>
+      <c r="HN27" t="n">
+        <v>32.11</v>
+      </c>
+      <c r="HO27" t="n">
+        <v>20.06</v>
+      </c>
+      <c r="HP27" t="n">
+        <v>13.92</v>
+      </c>
+      <c r="HQ27" t="n">
+        <v>21.5</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -18860,6 +19346,24 @@
       <c r="HK28" t="n">
         <v>31</v>
       </c>
+      <c r="HL28" t="n">
+        <v>28</v>
+      </c>
+      <c r="HM28" t="n">
+        <v>27</v>
+      </c>
+      <c r="HN28" t="n">
+        <v>38</v>
+      </c>
+      <c r="HO28" t="n">
+        <v>32</v>
+      </c>
+      <c r="HP28" t="n">
+        <v>29</v>
+      </c>
+      <c r="HQ28" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -19521,6 +20025,24 @@
       <c r="HK29" t="n">
         <v>45</v>
       </c>
+      <c r="HL29" t="n">
+        <v>42</v>
+      </c>
+      <c r="HM29" t="n">
+        <v>41</v>
+      </c>
+      <c r="HN29" t="n">
+        <v>44</v>
+      </c>
+      <c r="HO29" t="n">
+        <v>51</v>
+      </c>
+      <c r="HP29" t="n">
+        <v>40</v>
+      </c>
+      <c r="HQ29" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -20182,6 +20704,24 @@
       <c r="HK30" t="n">
         <v>34</v>
       </c>
+      <c r="HL30" t="n">
+        <v>40</v>
+      </c>
+      <c r="HM30" t="n">
+        <v>32</v>
+      </c>
+      <c r="HN30" t="n">
+        <v>35</v>
+      </c>
+      <c r="HO30" t="n">
+        <v>30</v>
+      </c>
+      <c r="HP30" t="n">
+        <v>30</v>
+      </c>
+      <c r="HQ30" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -20843,6 +21383,24 @@
       <c r="HK31" t="n">
         <v>42</v>
       </c>
+      <c r="HL31" t="n">
+        <v>34</v>
+      </c>
+      <c r="HM31" t="n">
+        <v>37</v>
+      </c>
+      <c r="HN31" t="n">
+        <v>38</v>
+      </c>
+      <c r="HO31" t="n">
+        <v>46</v>
+      </c>
+      <c r="HP31" t="n">
+        <v>51</v>
+      </c>
+      <c r="HQ31" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -21504,6 +22062,24 @@
       <c r="HK32" t="n">
         <v>3.82</v>
       </c>
+      <c r="HL32" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="HM32" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="HN32" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="HO32" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="HP32" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="HQ32" t="n">
+        <v>2.29</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -22165,6 +22741,24 @@
       <c r="HK33" t="n">
         <v>8.4</v>
       </c>
+      <c r="HL33" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="HM33" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="HN33" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="HO33" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="HP33" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="HQ33" t="n">
+        <v>5.33</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -22826,6 +23420,24 @@
       <c r="HK34" t="n">
         <v>16.7</v>
       </c>
+      <c r="HL34" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="HM34" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="HN34" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="HO34" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="HP34" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="HQ34" t="n">
+        <v>37.5</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -23487,6 +24099,24 @@
       <c r="HK35" t="n">
         <v>11.9</v>
       </c>
+      <c r="HL35" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="HM35" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="HN35" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="HO35" t="n">
+        <v>13</v>
+      </c>
+      <c r="HP35" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="HQ35" t="n">
+        <v>18.8</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -24148,6 +24778,24 @@
       <c r="HK36" t="n">
         <v>187.5</v>
       </c>
+      <c r="HL36" t="n">
+        <v>187.2</v>
+      </c>
+      <c r="HM36" t="n">
+        <v>187.3</v>
+      </c>
+      <c r="HN36" t="n">
+        <v>188</v>
+      </c>
+      <c r="HO36" t="n">
+        <v>188</v>
+      </c>
+      <c r="HP36" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="HQ36" t="n">
+        <v>187</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -24809,6 +25457,24 @@
       <c r="HK37" t="n">
         <v>88</v>
       </c>
+      <c r="HL37" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="HM37" t="n">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="HN37" t="n">
+        <v>88.59999999999999</v>
+      </c>
+      <c r="HO37" t="n">
+        <v>88.59999999999999</v>
+      </c>
+      <c r="HP37" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="HQ37" t="n">
+        <v>87.09999999999999</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -25470,6 +26136,24 @@
       <c r="HK38" t="n">
         <v>25</v>
       </c>
+      <c r="HL38" t="n">
+        <v>24.74</v>
+      </c>
+      <c r="HM38" t="n">
+        <v>25</v>
+      </c>
+      <c r="HN38" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="HO38" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="HP38" t="n">
+        <v>24.91</v>
+      </c>
+      <c r="HQ38" t="n">
+        <v>24.74</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -26131,6 +26815,24 @@
       <c r="HK39" t="n">
         <v>85.2</v>
       </c>
+      <c r="HL39" t="n">
+        <v>85.40000000000001</v>
+      </c>
+      <c r="HM39" t="n">
+        <v>87</v>
+      </c>
+      <c r="HN39" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="HO39" t="n">
+        <v>92.8</v>
+      </c>
+      <c r="HP39" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="HQ39" t="n">
+        <v>88.09999999999999</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -26792,6 +27494,24 @@
       <c r="HK40" t="n">
         <v>8</v>
       </c>
+      <c r="HL40" t="n">
+        <v>8</v>
+      </c>
+      <c r="HM40" t="n">
+        <v>8</v>
+      </c>
+      <c r="HN40" t="n">
+        <v>7</v>
+      </c>
+      <c r="HO40" t="n">
+        <v>7</v>
+      </c>
+      <c r="HP40" t="n">
+        <v>8</v>
+      </c>
+      <c r="HQ40" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -27453,6 +28173,24 @@
       <c r="HK41" t="n">
         <v>7</v>
       </c>
+      <c r="HL41" t="n">
+        <v>7</v>
+      </c>
+      <c r="HM41" t="n">
+        <v>7</v>
+      </c>
+      <c r="HN41" t="n">
+        <v>8</v>
+      </c>
+      <c r="HO41" t="n">
+        <v>8</v>
+      </c>
+      <c r="HP41" t="n">
+        <v>8</v>
+      </c>
+      <c r="HQ41" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -28114,6 +28852,24 @@
       <c r="HK42" t="n">
         <v>3</v>
       </c>
+      <c r="HL42" t="n">
+        <v>3</v>
+      </c>
+      <c r="HM42" t="n">
+        <v>3</v>
+      </c>
+      <c r="HN42" t="n">
+        <v>3</v>
+      </c>
+      <c r="HO42" t="n">
+        <v>3</v>
+      </c>
+      <c r="HP42" t="n">
+        <v>2</v>
+      </c>
+      <c r="HQ42" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -28775,6 +29531,24 @@
       <c r="HK43" t="n">
         <v>4</v>
       </c>
+      <c r="HL43" t="n">
+        <v>4</v>
+      </c>
+      <c r="HM43" t="n">
+        <v>4</v>
+      </c>
+      <c r="HN43" t="n">
+        <v>4</v>
+      </c>
+      <c r="HO43" t="n">
+        <v>4</v>
+      </c>
+      <c r="HP43" t="n">
+        <v>4</v>
+      </c>
+      <c r="HQ43" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -29436,6 +30210,24 @@
       <c r="HK44" t="n">
         <v>137</v>
       </c>
+      <c r="HL44" t="n">
+        <v>131</v>
+      </c>
+      <c r="HM44" t="n">
+        <v>108</v>
+      </c>
+      <c r="HN44" t="n">
+        <v>112</v>
+      </c>
+      <c r="HO44" t="n">
+        <v>134</v>
+      </c>
+      <c r="HP44" t="n">
+        <v>123</v>
+      </c>
+      <c r="HQ44" t="n">
+        <v>106</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -30097,6 +30889,24 @@
       <c r="HK45" t="n">
         <v>141</v>
       </c>
+      <c r="HL45" t="n">
+        <v>190</v>
+      </c>
+      <c r="HM45" t="n">
+        <v>163</v>
+      </c>
+      <c r="HN45" t="n">
+        <v>179</v>
+      </c>
+      <c r="HO45" t="n">
+        <v>206</v>
+      </c>
+      <c r="HP45" t="n">
+        <v>212</v>
+      </c>
+      <c r="HQ45" t="n">
+        <v>197</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -30758,6 +31568,24 @@
       <c r="HK46" t="n">
         <v>180</v>
       </c>
+      <c r="HL46" t="n">
+        <v>231</v>
+      </c>
+      <c r="HM46" t="n">
+        <v>198</v>
+      </c>
+      <c r="HN46" t="n">
+        <v>219</v>
+      </c>
+      <c r="HO46" t="n">
+        <v>244</v>
+      </c>
+      <c r="HP46" t="n">
+        <v>259</v>
+      </c>
+      <c r="HQ46" t="n">
+        <v>228</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -31419,6 +32247,24 @@
       <c r="HK47" t="n">
         <v>64.5</v>
       </c>
+      <c r="HL47" t="n">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="HM47" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="HN47" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="HO47" t="n">
+        <v>71.59999999999999</v>
+      </c>
+      <c r="HP47" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="HQ47" t="n">
+        <v>75.7</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -32080,6 +32926,24 @@
       <c r="HK48" t="n">
         <v>45</v>
       </c>
+      <c r="HL48" t="n">
+        <v>42</v>
+      </c>
+      <c r="HM48" t="n">
+        <v>41</v>
+      </c>
+      <c r="HN48" t="n">
+        <v>44</v>
+      </c>
+      <c r="HO48" t="n">
+        <v>51</v>
+      </c>
+      <c r="HP48" t="n">
+        <v>40</v>
+      </c>
+      <c r="HQ48" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -32741,6 +33605,24 @@
       <c r="HK49" t="n">
         <v>10</v>
       </c>
+      <c r="HL49" t="n">
+        <v>14</v>
+      </c>
+      <c r="HM49" t="n">
+        <v>6</v>
+      </c>
+      <c r="HN49" t="n">
+        <v>10</v>
+      </c>
+      <c r="HO49" t="n">
+        <v>5</v>
+      </c>
+      <c r="HP49" t="n">
+        <v>19</v>
+      </c>
+      <c r="HQ49" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -33402,6 +34284,24 @@
       <c r="HK50" t="n">
         <v>8</v>
       </c>
+      <c r="HL50" t="n">
+        <v>10</v>
+      </c>
+      <c r="HM50" t="n">
+        <v>4</v>
+      </c>
+      <c r="HN50" t="n">
+        <v>10</v>
+      </c>
+      <c r="HO50" t="n">
+        <v>3</v>
+      </c>
+      <c r="HP50" t="n">
+        <v>13</v>
+      </c>
+      <c r="HQ50" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -34063,6 +34963,24 @@
       <c r="HK51" t="n">
         <v>31</v>
       </c>
+      <c r="HL51" t="n">
+        <v>28</v>
+      </c>
+      <c r="HM51" t="n">
+        <v>27</v>
+      </c>
+      <c r="HN51" t="n">
+        <v>38</v>
+      </c>
+      <c r="HO51" t="n">
+        <v>32</v>
+      </c>
+      <c r="HP51" t="n">
+        <v>29</v>
+      </c>
+      <c r="HQ51" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -34724,6 +35642,24 @@
       <c r="HK52" t="n">
         <v>34</v>
       </c>
+      <c r="HL52" t="n">
+        <v>40</v>
+      </c>
+      <c r="HM52" t="n">
+        <v>32</v>
+      </c>
+      <c r="HN52" t="n">
+        <v>35</v>
+      </c>
+      <c r="HO52" t="n">
+        <v>30</v>
+      </c>
+      <c r="HP52" t="n">
+        <v>30</v>
+      </c>
+      <c r="HQ52" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -35385,6 +36321,24 @@
       <c r="HK53" t="n">
         <v>56</v>
       </c>
+      <c r="HL53" t="n">
+        <v>53</v>
+      </c>
+      <c r="HM53" t="n">
+        <v>37</v>
+      </c>
+      <c r="HN53" t="n">
+        <v>53</v>
+      </c>
+      <c r="HO53" t="n">
+        <v>52</v>
+      </c>
+      <c r="HP53" t="n">
+        <v>36</v>
+      </c>
+      <c r="HQ53" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -36046,6 +37000,24 @@
       <c r="HK54" t="n">
         <v>3</v>
       </c>
+      <c r="HL54" t="n">
+        <v>5</v>
+      </c>
+      <c r="HM54" t="n">
+        <v>6</v>
+      </c>
+      <c r="HN54" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO54" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP54" t="n">
+        <v>9</v>
+      </c>
+      <c r="HQ54" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -36707,6 +37679,24 @@
       <c r="HK55" t="n">
         <v>2</v>
       </c>
+      <c r="HL55" t="n">
+        <v>5</v>
+      </c>
+      <c r="HM55" t="n">
+        <v>4</v>
+      </c>
+      <c r="HN55" t="n">
+        <v>3</v>
+      </c>
+      <c r="HO55" t="n">
+        <v>2</v>
+      </c>
+      <c r="HP55" t="n">
+        <v>10</v>
+      </c>
+      <c r="HQ55" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -37368,6 +38358,24 @@
       <c r="HK56" t="n">
         <v>40</v>
       </c>
+      <c r="HL56" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="HM56" t="n">
+        <v>50</v>
+      </c>
+      <c r="HN56" t="n">
+        <v>75</v>
+      </c>
+      <c r="HO56" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="HP56" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="HQ56" t="n">
+        <v>83.3</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -38029,6 +39037,24 @@
       <c r="HK57" t="n">
         <v>190</v>
       </c>
+      <c r="HL57" t="n">
+        <v>185</v>
+      </c>
+      <c r="HM57" t="n">
+        <v>199</v>
+      </c>
+      <c r="HN57" t="n">
+        <v>172</v>
+      </c>
+      <c r="HO57" t="n">
+        <v>162</v>
+      </c>
+      <c r="HP57" t="n">
+        <v>123</v>
+      </c>
+      <c r="HQ57" t="n">
+        <v>162</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -38690,6 +39716,24 @@
       <c r="HK58" t="n">
         <v>101</v>
       </c>
+      <c r="HL58" t="n">
+        <v>118</v>
+      </c>
+      <c r="HM58" t="n">
+        <v>151</v>
+      </c>
+      <c r="HN58" t="n">
+        <v>109</v>
+      </c>
+      <c r="HO58" t="n">
+        <v>93</v>
+      </c>
+      <c r="HP58" t="n">
+        <v>118</v>
+      </c>
+      <c r="HQ58" t="n">
+        <v>125</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -39351,6 +40395,24 @@
       <c r="HK59" t="n">
         <v>291</v>
       </c>
+      <c r="HL59" t="n">
+        <v>303</v>
+      </c>
+      <c r="HM59" t="n">
+        <v>350</v>
+      </c>
+      <c r="HN59" t="n">
+        <v>281</v>
+      </c>
+      <c r="HO59" t="n">
+        <v>255</v>
+      </c>
+      <c r="HP59" t="n">
+        <v>241</v>
+      </c>
+      <c r="HQ59" t="n">
+        <v>287</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -40012,6 +41074,24 @@
       <c r="HK60" t="n">
         <v>1.88</v>
       </c>
+      <c r="HL60" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="HM60" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="HN60" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="HO60" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="HP60" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="HQ60" t="n">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -40673,6 +41753,24 @@
       <c r="HK61" t="n">
         <v>39</v>
       </c>
+      <c r="HL61" t="n">
+        <v>79</v>
+      </c>
+      <c r="HM61" t="n">
+        <v>81</v>
+      </c>
+      <c r="HN61" t="n">
+        <v>80</v>
+      </c>
+      <c r="HO61" t="n">
+        <v>32</v>
+      </c>
+      <c r="HP61" t="n">
+        <v>48</v>
+      </c>
+      <c r="HQ61" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -41334,6 +42432,24 @@
       <c r="HK62" t="n">
         <v>68</v>
       </c>
+      <c r="HL62" t="n">
+        <v>50</v>
+      </c>
+      <c r="HM62" t="n">
+        <v>53</v>
+      </c>
+      <c r="HN62" t="n">
+        <v>37</v>
+      </c>
+      <c r="HO62" t="n">
+        <v>45</v>
+      </c>
+      <c r="HP62" t="n">
+        <v>36</v>
+      </c>
+      <c r="HQ62" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -41995,6 +43111,24 @@
       <c r="HK63" t="n">
         <v>32</v>
       </c>
+      <c r="HL63" t="n">
+        <v>32</v>
+      </c>
+      <c r="HM63" t="n">
+        <v>26</v>
+      </c>
+      <c r="HN63" t="n">
+        <v>32</v>
+      </c>
+      <c r="HO63" t="n">
+        <v>45</v>
+      </c>
+      <c r="HP63" t="n">
+        <v>28</v>
+      </c>
+      <c r="HQ63" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -42656,6 +43790,24 @@
       <c r="HK64" t="n">
         <v>16</v>
       </c>
+      <c r="HL64" t="n">
+        <v>13</v>
+      </c>
+      <c r="HM64" t="n">
+        <v>17</v>
+      </c>
+      <c r="HN64" t="n">
+        <v>13</v>
+      </c>
+      <c r="HO64" t="n">
+        <v>13</v>
+      </c>
+      <c r="HP64" t="n">
+        <v>12</v>
+      </c>
+      <c r="HQ64" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -43317,6 +44469,24 @@
       <c r="HK65" t="n">
         <v>14</v>
       </c>
+      <c r="HL65" t="n">
+        <v>13</v>
+      </c>
+      <c r="HM65" t="n">
+        <v>20</v>
+      </c>
+      <c r="HN65" t="n">
+        <v>18</v>
+      </c>
+      <c r="HO65" t="n">
+        <v>18</v>
+      </c>
+      <c r="HP65" t="n">
+        <v>17</v>
+      </c>
+      <c r="HQ65" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -43978,6 +45148,24 @@
       <c r="HK66" t="n">
         <v>5</v>
       </c>
+      <c r="HL66" t="n">
+        <v>2</v>
+      </c>
+      <c r="HM66" t="n">
+        <v>14</v>
+      </c>
+      <c r="HN66" t="n">
+        <v>8</v>
+      </c>
+      <c r="HO66" t="n">
+        <v>4</v>
+      </c>
+      <c r="HP66" t="n">
+        <v>5</v>
+      </c>
+      <c r="HQ66" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -44639,6 +45827,24 @@
       <c r="HK67" t="n">
         <v>2</v>
       </c>
+      <c r="HL67" t="n">
+        <v>1</v>
+      </c>
+      <c r="HM67" t="n">
+        <v>11</v>
+      </c>
+      <c r="HN67" t="n">
+        <v>5</v>
+      </c>
+      <c r="HO67" t="n">
+        <v>3</v>
+      </c>
+      <c r="HP67" t="n">
+        <v>5</v>
+      </c>
+      <c r="HQ67" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -45300,6 +46506,24 @@
       <c r="HK68" t="n">
         <v>9</v>
       </c>
+      <c r="HL68" t="n">
+        <v>6</v>
+      </c>
+      <c r="HM68" t="n">
+        <v>6</v>
+      </c>
+      <c r="HN68" t="n">
+        <v>4</v>
+      </c>
+      <c r="HO68" t="n">
+        <v>8</v>
+      </c>
+      <c r="HP68" t="n">
+        <v>2</v>
+      </c>
+      <c r="HQ68" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -45961,6 +47185,24 @@
       <c r="HK69" t="n">
         <v>1</v>
       </c>
+      <c r="HL69" t="n">
+        <v>1</v>
+      </c>
+      <c r="HM69" t="n">
+        <v>1</v>
+      </c>
+      <c r="HN69" t="n">
+        <v>4</v>
+      </c>
+      <c r="HO69" t="n">
+        <v>1</v>
+      </c>
+      <c r="HP69" t="n">
+        <v>3</v>
+      </c>
+      <c r="HQ69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -46622,6 +47864,24 @@
       <c r="HK70" t="n">
         <v>15</v>
       </c>
+      <c r="HL70" t="n">
+        <v>9</v>
+      </c>
+      <c r="HM70" t="n">
+        <v>21</v>
+      </c>
+      <c r="HN70" t="n">
+        <v>16</v>
+      </c>
+      <c r="HO70" t="n">
+        <v>13</v>
+      </c>
+      <c r="HP70" t="n">
+        <v>10</v>
+      </c>
+      <c r="HQ70" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -47283,6 +48543,24 @@
       <c r="HK71" t="n">
         <v>33.3</v>
       </c>
+      <c r="HL71" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="HM71" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="HN71" t="n">
+        <v>50</v>
+      </c>
+      <c r="HO71" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="HP71" t="n">
+        <v>50</v>
+      </c>
+      <c r="HQ71" t="n">
+        <v>57.9</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -47944,6 +49222,24 @@
       <c r="HK72" t="n">
         <v>58.2</v>
       </c>
+      <c r="HL72" t="n">
+        <v>151.5</v>
+      </c>
+      <c r="HM72" t="n">
+        <v>25</v>
+      </c>
+      <c r="HN72" t="n">
+        <v>35.12</v>
+      </c>
+      <c r="HO72" t="n">
+        <v>63.75</v>
+      </c>
+      <c r="HP72" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="HQ72" t="n">
+        <v>26.09</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -48605,6 +49901,24 @@
       <c r="HK73" t="n">
         <v>19.4</v>
       </c>
+      <c r="HL73" t="n">
+        <v>33.67</v>
+      </c>
+      <c r="HM73" t="n">
+        <v>16.67</v>
+      </c>
+      <c r="HN73" t="n">
+        <v>17.56</v>
+      </c>
+      <c r="HO73" t="n">
+        <v>19.62</v>
+      </c>
+      <c r="HP73" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="HQ73" t="n">
+        <v>15.11</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -49266,6 +50580,24 @@
       <c r="HK74" t="n">
         <v>43</v>
       </c>
+      <c r="HL74" t="n">
+        <v>28</v>
+      </c>
+      <c r="HM74" t="n">
+        <v>34</v>
+      </c>
+      <c r="HN74" t="n">
+        <v>19</v>
+      </c>
+      <c r="HO74" t="n">
+        <v>39</v>
+      </c>
+      <c r="HP74" t="n">
+        <v>23</v>
+      </c>
+      <c r="HQ74" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -49927,6 +51259,24 @@
       <c r="HK75" t="n">
         <v>58</v>
       </c>
+      <c r="HL75" t="n">
+        <v>38</v>
+      </c>
+      <c r="HM75" t="n">
+        <v>49</v>
+      </c>
+      <c r="HN75" t="n">
+        <v>42</v>
+      </c>
+      <c r="HO75" t="n">
+        <v>66</v>
+      </c>
+      <c r="HP75" t="n">
+        <v>46</v>
+      </c>
+      <c r="HQ75" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -50588,6 +51938,24 @@
       <c r="HK76" t="n">
         <v>37</v>
       </c>
+      <c r="HL76" t="n">
+        <v>26</v>
+      </c>
+      <c r="HM76" t="n">
+        <v>29</v>
+      </c>
+      <c r="HN76" t="n">
+        <v>33</v>
+      </c>
+      <c r="HO76" t="n">
+        <v>39</v>
+      </c>
+      <c r="HP76" t="n">
+        <v>34</v>
+      </c>
+      <c r="HQ76" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -51249,6 +52617,24 @@
       <c r="HK77" t="n">
         <v>41</v>
       </c>
+      <c r="HL77" t="n">
+        <v>43</v>
+      </c>
+      <c r="HM77" t="n">
+        <v>45</v>
+      </c>
+      <c r="HN77" t="n">
+        <v>43</v>
+      </c>
+      <c r="HO77" t="n">
+        <v>35</v>
+      </c>
+      <c r="HP77" t="n">
+        <v>35</v>
+      </c>
+      <c r="HQ77" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -51910,6 +53296,24 @@
       <c r="HK78" t="n">
         <v>2.73</v>
       </c>
+      <c r="HL78" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="HM78" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="HN78" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="HO78" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="HP78" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="HQ78" t="n">
+        <v>2.53</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -52571,6 +53975,24 @@
       <c r="HK79" t="n">
         <v>8.199999999999999</v>
       </c>
+      <c r="HL79" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="HM79" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="HN79" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="HO79" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="HP79" t="n">
+        <v>7</v>
+      </c>
+      <c r="HQ79" t="n">
+        <v>4.36</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -53232,6 +54654,24 @@
       <c r="HK80" t="n">
         <v>34.1</v>
       </c>
+      <c r="HL80" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="HM80" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="HN80" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="HO80" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="HP80" t="n">
+        <v>20</v>
+      </c>
+      <c r="HQ80" t="n">
+        <v>39.6</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -53893,6 +55333,24 @@
       <c r="HK81" t="n">
         <v>12.2</v>
       </c>
+      <c r="HL81" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="HM81" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="HN81" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="HO81" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="HP81" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="HQ81" t="n">
+        <v>22.9</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -54554,6 +56012,24 @@
       <c r="HK82" t="n">
         <v>188</v>
       </c>
+      <c r="HL82" t="n">
+        <v>187.3</v>
+      </c>
+      <c r="HM82" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="HN82" t="n">
+        <v>185.7</v>
+      </c>
+      <c r="HO82" t="n">
+        <v>188</v>
+      </c>
+      <c r="HP82" t="n">
+        <v>189.5</v>
+      </c>
+      <c r="HQ82" t="n">
+        <v>187.9</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -55215,6 +56691,24 @@
       <c r="HK83" t="n">
         <v>85.3</v>
       </c>
+      <c r="HL83" t="n">
+        <v>83.90000000000001</v>
+      </c>
+      <c r="HM83" t="n">
+        <v>86.5</v>
+      </c>
+      <c r="HN83" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="HO83" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="HP83" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="HQ83" t="n">
+        <v>85.59999999999999</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -55876,6 +57370,24 @@
       <c r="HK84" t="n">
         <v>25.58</v>
       </c>
+      <c r="HL84" t="n">
+        <v>24.24</v>
+      </c>
+      <c r="HM84" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="HN84" t="n">
+        <v>25.49</v>
+      </c>
+      <c r="HO84" t="n">
+        <v>24.91</v>
+      </c>
+      <c r="HP84" t="n">
+        <v>25.74</v>
+      </c>
+      <c r="HQ84" t="n">
+        <v>25.16</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -56537,6 +58049,24 @@
       <c r="HK85" t="n">
         <v>105.1</v>
       </c>
+      <c r="HL85" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="HM85" t="n">
+        <v>108.4</v>
+      </c>
+      <c r="HN85" t="n">
+        <v>95</v>
+      </c>
+      <c r="HO85" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="HP85" t="n">
+        <v>94.90000000000001</v>
+      </c>
+      <c r="HQ85" t="n">
+        <v>94.59999999999999</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -57198,6 +58728,24 @@
       <c r="HK86" t="n">
         <v>9</v>
       </c>
+      <c r="HL86" t="n">
+        <v>11</v>
+      </c>
+      <c r="HM86" t="n">
+        <v>6</v>
+      </c>
+      <c r="HN86" t="n">
+        <v>10</v>
+      </c>
+      <c r="HO86" t="n">
+        <v>8</v>
+      </c>
+      <c r="HP86" t="n">
+        <v>9</v>
+      </c>
+      <c r="HQ86" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -57859,6 +59407,24 @@
       <c r="HK87" t="n">
         <v>3</v>
       </c>
+      <c r="HL87" t="n">
+        <v>5</v>
+      </c>
+      <c r="HM87" t="n">
+        <v>5</v>
+      </c>
+      <c r="HN87" t="n">
+        <v>5</v>
+      </c>
+      <c r="HO87" t="n">
+        <v>6</v>
+      </c>
+      <c r="HP87" t="n">
+        <v>4</v>
+      </c>
+      <c r="HQ87" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -58520,6 +60086,24 @@
       <c r="HK88" t="n">
         <v>5</v>
       </c>
+      <c r="HL88" t="n">
+        <v>4</v>
+      </c>
+      <c r="HM88" t="n">
+        <v>6</v>
+      </c>
+      <c r="HN88" t="n">
+        <v>1</v>
+      </c>
+      <c r="HO88" t="n">
+        <v>5</v>
+      </c>
+      <c r="HP88" t="n">
+        <v>4</v>
+      </c>
+      <c r="HQ88" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -59181,6 +60765,24 @@
       <c r="HK89" t="n">
         <v>5</v>
       </c>
+      <c r="HL89" t="n">
+        <v>2</v>
+      </c>
+      <c r="HM89" t="n">
+        <v>5</v>
+      </c>
+      <c r="HN89" t="n">
+        <v>6</v>
+      </c>
+      <c r="HO89" t="n">
+        <v>3</v>
+      </c>
+      <c r="HP89" t="n">
+        <v>5</v>
+      </c>
+      <c r="HQ89" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -59842,6 +61444,24 @@
       <c r="HK90" t="n">
         <v>155</v>
       </c>
+      <c r="HL90" t="n">
+        <v>114</v>
+      </c>
+      <c r="HM90" t="n">
+        <v>123</v>
+      </c>
+      <c r="HN90" t="n">
+        <v>108</v>
+      </c>
+      <c r="HO90" t="n">
+        <v>142</v>
+      </c>
+      <c r="HP90" t="n">
+        <v>95</v>
+      </c>
+      <c r="HQ90" t="n">
+        <v>106</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -60503,6 +62123,24 @@
       <c r="HK91" t="n">
         <v>125</v>
       </c>
+      <c r="HL91" t="n">
+        <v>182</v>
+      </c>
+      <c r="HM91" t="n">
+        <v>228</v>
+      </c>
+      <c r="HN91" t="n">
+        <v>170</v>
+      </c>
+      <c r="HO91" t="n">
+        <v>98</v>
+      </c>
+      <c r="HP91" t="n">
+        <v>139</v>
+      </c>
+      <c r="HQ91" t="n">
+        <v>186</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -61164,6 +62802,24 @@
       <c r="HK92" t="n">
         <v>152</v>
       </c>
+      <c r="HL92" t="n">
+        <v>205</v>
+      </c>
+      <c r="HM92" t="n">
+        <v>262</v>
+      </c>
+      <c r="HN92" t="n">
+        <v>208</v>
+      </c>
+      <c r="HO92" t="n">
+        <v>136</v>
+      </c>
+      <c r="HP92" t="n">
+        <v>170</v>
+      </c>
+      <c r="HQ92" t="n">
+        <v>233</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -61825,6 +63481,24 @@
       <c r="HK93" t="n">
         <v>52.2</v>
       </c>
+      <c r="HL93" t="n">
+        <v>67.7</v>
+      </c>
+      <c r="HM93" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="HN93" t="n">
+        <v>74</v>
+      </c>
+      <c r="HO93" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="HP93" t="n">
+        <v>70.5</v>
+      </c>
+      <c r="HQ93" t="n">
+        <v>81.2</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -62486,6 +64160,24 @@
       <c r="HK94" t="n">
         <v>58</v>
       </c>
+      <c r="HL94" t="n">
+        <v>38</v>
+      </c>
+      <c r="HM94" t="n">
+        <v>49</v>
+      </c>
+      <c r="HN94" t="n">
+        <v>42</v>
+      </c>
+      <c r="HO94" t="n">
+        <v>66</v>
+      </c>
+      <c r="HP94" t="n">
+        <v>46</v>
+      </c>
+      <c r="HQ94" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -63147,6 +64839,24 @@
       <c r="HK95" t="n">
         <v>3</v>
       </c>
+      <c r="HL95" t="n">
+        <v>9</v>
+      </c>
+      <c r="HM95" t="n">
+        <v>9</v>
+      </c>
+      <c r="HN95" t="n">
+        <v>9</v>
+      </c>
+      <c r="HO95" t="n">
+        <v>9</v>
+      </c>
+      <c r="HP95" t="n">
+        <v>6</v>
+      </c>
+      <c r="HQ95" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -63808,6 +65518,24 @@
       <c r="HK96" t="n">
         <v>5</v>
       </c>
+      <c r="HL96" t="n">
+        <v>4</v>
+      </c>
+      <c r="HM96" t="n">
+        <v>11</v>
+      </c>
+      <c r="HN96" t="n">
+        <v>11</v>
+      </c>
+      <c r="HO96" t="n">
+        <v>4</v>
+      </c>
+      <c r="HP96" t="n">
+        <v>6</v>
+      </c>
+      <c r="HQ96" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -64469,6 +66197,24 @@
       <c r="HK97" t="n">
         <v>43</v>
       </c>
+      <c r="HL97" t="n">
+        <v>28</v>
+      </c>
+      <c r="HM97" t="n">
+        <v>34</v>
+      </c>
+      <c r="HN97" t="n">
+        <v>19</v>
+      </c>
+      <c r="HO97" t="n">
+        <v>39</v>
+      </c>
+      <c r="HP97" t="n">
+        <v>23</v>
+      </c>
+      <c r="HQ97" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -65130,6 +66876,24 @@
       <c r="HK98" t="n">
         <v>37</v>
       </c>
+      <c r="HL98" t="n">
+        <v>26</v>
+      </c>
+      <c r="HM98" t="n">
+        <v>29</v>
+      </c>
+      <c r="HN98" t="n">
+        <v>33</v>
+      </c>
+      <c r="HO98" t="n">
+        <v>39</v>
+      </c>
+      <c r="HP98" t="n">
+        <v>34</v>
+      </c>
+      <c r="HQ98" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -65791,6 +67555,24 @@
       <c r="HK99" t="n">
         <v>66</v>
       </c>
+      <c r="HL99" t="n">
+        <v>58</v>
+      </c>
+      <c r="HM99" t="n">
+        <v>51</v>
+      </c>
+      <c r="HN99" t="n">
+        <v>41</v>
+      </c>
+      <c r="HO99" t="n">
+        <v>59</v>
+      </c>
+      <c r="HP99" t="n">
+        <v>30</v>
+      </c>
+      <c r="HQ99" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -66452,6 +68234,24 @@
       <c r="HK100" t="n">
         <v>2</v>
       </c>
+      <c r="HL100" t="n">
+        <v>1</v>
+      </c>
+      <c r="HM100" t="n">
+        <v>5</v>
+      </c>
+      <c r="HN100" t="n">
+        <v>9</v>
+      </c>
+      <c r="HO100" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP100" t="n">
+        <v>3</v>
+      </c>
+      <c r="HQ100" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -67113,6 +68913,24 @@
       <c r="HK101" t="n">
         <v>2</v>
       </c>
+      <c r="HL101" t="n">
+        <v>1</v>
+      </c>
+      <c r="HM101" t="n">
+        <v>11</v>
+      </c>
+      <c r="HN101" t="n">
+        <v>5</v>
+      </c>
+      <c r="HO101" t="n">
+        <v>3</v>
+      </c>
+      <c r="HP101" t="n">
+        <v>5</v>
+      </c>
+      <c r="HQ101" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -67774,8 +69592,26 @@
       <c r="HK102" t="n">
         <v>40</v>
       </c>
+      <c r="HL102" t="n">
+        <v>50</v>
+      </c>
+      <c r="HM102" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="HN102" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="HO102" t="n">
+        <v>75</v>
+      </c>
+      <c r="HP102" t="n">
+        <v>100</v>
+      </c>
+      <c r="HQ102" t="n">
+        <v>72.7</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>